--- a/datamining/final_data/sorted2013_nltk.xlsx
+++ b/datamining/final_data/sorted2013_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AMG2"/>
+  <dimension ref="A1:AKU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,14 +452,14 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>play</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>children</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>twice-exceptional</t>
@@ -477,24 +477,24 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>single-subject</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>women</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>homeschooling</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>single-subject</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hope</t>
@@ -532,24 +532,24 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>dyslexia</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>scale</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cogat6</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>nnat2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>cogat6</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>dyslexia</t>
-        </is>
-      </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>'s</t>
@@ -567,19 +567,19 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>creativity</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>using</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>adhd</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>using</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>creativity</t>
-        </is>
-      </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>scores</t>
@@ -592,14 +592,14 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>parenting</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>search</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>parenting</t>
-        </is>
-      </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>range</t>
@@ -612,24 +612,24 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
           <t>three</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>talent</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>i.e.</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>professionals</t>
@@ -637,257 +637,257 @@
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
+          <t>understanding</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>child</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
           <t>knowledge</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>child</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>cognitive</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>introduction</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>empirical</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>math</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>path</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>logistic</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>issue</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>introduction</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>understanding</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>reasoning</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>working</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>logistic</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>reasoning</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>progress</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>design</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>young</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>progress</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>verbal</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>teachers</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>fluency</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>screening</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>discrepancy</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>screening</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>young</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>design</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>teachers</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>gifted</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>primary</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>caregivers</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>caregivers</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>primary</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>fluency</t>
-        </is>
-      </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>approaches</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
           <t>research</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>approaches</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
+          <t>talented</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
           <t>diverse</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>talented</t>
-        </is>
-      </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>experimental</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
           <t>achievement</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>regression</t>
-        </is>
-      </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>experimental</t>
+          <t>nominated</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>nominated</t>
+          <t>modeling</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>survey</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
           <t>science</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>spain</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>survey</t>
-        </is>
-      </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>modeling</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>brief</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>open-response</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>disabilities</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>brief</t>
+          <t>men</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>open-response</t>
+          <t>school</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
@@ -897,312 +897,312 @@
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>disabilities</t>
+          <t>within</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>units</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>secondary</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>age</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>race</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
           <t>sex</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>race</t>
-        </is>
-      </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>secondary</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>programming</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>delivery</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>findings</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
+          <t>perceptions</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>participants</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>learners</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
           <t>qualitative</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>learners</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>findings</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>delivery</t>
-        </is>
-      </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>perceptions</t>
+          <t>content</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>programming</t>
+          <t>nonverbal</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
+          <t>populations</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
           <t>instruction</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>experience</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>purpose</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>participants</t>
-        </is>
-      </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>nonverbal</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
+          <t>policy</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>nels:88</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>curriculum</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>primer</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
           <t>schools</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>variables</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>comprehension</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>across</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>intervention</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>populations</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>educators</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>without</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>curriculum</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>primer</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>group</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>orthographic</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>superior</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>exhibited</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>fifth-</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>interventions</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>income</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>policy</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>interventions</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>superior</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>literature</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>sixth-grade</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>additional</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>advanced</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>additional</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>orthographic</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>fifth-</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>sixth-grade</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>nels:88</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>variables</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>also</t>
-        </is>
-      </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>results</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>psychological</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>questioning</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>exhibited</t>
+          <t>preliminary</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>attention</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>preliminary</t>
+          <t>high-ability</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>high-ability</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>questioning</t>
+          <t>instructional</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>support</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>practice</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>instructional</t>
+          <t>clarity</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>practice</t>
+          <t>oral</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>role</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
@@ -1217,97 +1217,97 @@
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>psychological</t>
+          <t>compare</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>oral</t>
+          <t>program</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
           <t>articulating</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>attention</t>
-        </is>
-      </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>compare</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>clarity</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>recommendations</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>second</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>provide</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>provide</t>
+          <t>domains</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
+          <t>responsiveness</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
           <t>researchers</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>recommendations</t>
-        </is>
-      </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>responsiveness</t>
+          <t>main</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>main</t>
+          <t>criteria</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>styles</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>domains</t>
+          <t>monitoring</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>indicated</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
@@ -1322,2687 +1322,2687 @@
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>demographic</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>styles</t>
+          <t>status</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>family</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>nominate</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>related</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
+          <t>outcomes</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>intelligences</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>social</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>better</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>expectations</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
           <t>leading</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>nominate</t>
-        </is>
-      </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="GF1" s="1" t="inlineStr">
-        <is>
-          <t>outcomes</t>
-        </is>
-      </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>criteria</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>demographic</t>
-        </is>
-      </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>intelligences</t>
+          <t>well</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>better</t>
+          <t>major</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>related</t>
+          <t>found</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>two</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>expectations</t>
+          <t>itbs</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>methodological</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>discussed</t>
+          <t>illustrate</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>major</t>
+          <t>familiar</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>concepts</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>found</t>
+          <t>recommended</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>recommended</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>illustrate</t>
+          <t>first</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
+          <t>perspectives</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>homeschool</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>paradigm</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>twice</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>challenges</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>elementary</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>abilities</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>exceptional</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
           <t>overview</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="GY1" s="1" t="inlineStr">
-        <is>
-          <t>perspectives</t>
-        </is>
-      </c>
-      <c r="GZ1" s="1" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-      <c r="HA1" s="1" t="inlineStr">
-        <is>
-          <t>challenges</t>
-        </is>
-      </c>
-      <c r="HB1" s="1" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="HC1" s="1" t="inlineStr">
-        <is>
-          <t>elementary</t>
-        </is>
-      </c>
-      <c r="HD1" s="1" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="HE1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="HF1" s="1" t="inlineStr">
-        <is>
-          <t>familiar</t>
-        </is>
-      </c>
-      <c r="HG1" s="1" t="inlineStr">
-        <is>
-          <t>concepts</t>
-        </is>
-      </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>methodologies</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>homeschool</t>
+          <t>one</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>greater</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>exceptional</t>
+          <t>less</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>tag</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>twice</t>
+          <t>disorder</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>itbs</t>
+          <t>spelling</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>methodological</t>
+          <t>analyses</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>methodologies</t>
+          <t>need</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>included</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>college</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>greater</t>
+          <t>impaired</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>included</t>
+          <t>average</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>paradigm</t>
+          <t>investigated</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>disorder</t>
+          <t>fields</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>percentile</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>analyses</t>
+          <t>word</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>investigated</t>
+          <t>statistical</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>tag</t>
+          <t>response</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>spelling</t>
+          <t>assessing</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>impaired</t>
+          <t>despite</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>including</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>development</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>levels</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>percentile</t>
+          <t>future</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>assessing</t>
+          <t>higher</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>deficit</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>fields</t>
+          <t>hyperactive</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>mothers</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>statistical</t>
+          <t>wide</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>mothers</t>
+          <t>reported</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>general</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>deficit</t>
+          <t>quantitative</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>wide</t>
+          <t>importance</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>levels</t>
+          <t>analyzed</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>including</t>
+          <t>significant</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>hyperactive</t>
+          <t>factor</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>despite</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>higher</t>
+          <t>grounded</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>factor</t>
+          <t>acceleration</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>importance</t>
+          <t>theory</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>quantitative</t>
+          <t>themes</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>responsibility</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>reported</t>
+          <t>10th</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>analyzed</t>
+          <t>interviews</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>fewer</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>professional</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>showed</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>acceleration</t>
+          <t>online</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
+          <t>perceived</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>discovery</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>k-12</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>nongifted</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>tests</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>arts</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>ethnic/racial</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>minority</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>ell</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>differential</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>conducted</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>functioning</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>edition</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
           <t>composite</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
-        <is>
-          <t>ell</t>
-        </is>
-      </c>
-      <c r="JH1" s="1" t="inlineStr">
-        <is>
-          <t>interviews</t>
-        </is>
-      </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>item</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>graders</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
-        <is>
-          <t>minority</t>
-        </is>
-      </c>
-      <c r="JK1" s="1" t="inlineStr">
-        <is>
-          <t>perceived</t>
-        </is>
-      </c>
-      <c r="JL1" s="1" t="inlineStr">
-        <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="JM1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="JN1" s="1" t="inlineStr">
-        <is>
-          <t>arts</t>
-        </is>
-      </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>validity</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>specific</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
-        <is>
-          <t>discovery</t>
-        </is>
-      </c>
-      <c r="JQ1" s="1" t="inlineStr">
-        <is>
-          <t>k-12</t>
-        </is>
-      </c>
-      <c r="JR1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="JS1" s="1" t="inlineStr">
-        <is>
-          <t>nongifted</t>
-        </is>
-      </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>presented</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="JV1" s="1" t="inlineStr">
-        <is>
-          <t>online</t>
-        </is>
-      </c>
-      <c r="JW1" s="1" t="inlineStr">
-        <is>
-          <t>grounded</t>
-        </is>
-      </c>
-      <c r="JX1" s="1" t="inlineStr">
-        <is>
-          <t>fewer</t>
-        </is>
-      </c>
-      <c r="JY1" s="1" t="inlineStr">
-        <is>
-          <t>these</t>
-        </is>
-      </c>
-      <c r="JZ1" s="1" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
-      <c r="KA1" s="1" t="inlineStr">
-        <is>
-          <t>responsibility</t>
-        </is>
-      </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>edition</t>
+          <t>describe</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>themes</t>
+          <t>thus</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>ethnic/racial</t>
+          <t>four</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>conducted</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>theory</t>
+          <t>five</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>validity</t>
+          <t>examines</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
         <is>
-          <t>differential</t>
+          <t>could</t>
         </is>
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>however</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>functioning</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>taught</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>however</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>significantly</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>examines</t>
+          <t>underserved</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>asked</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>describe</t>
+          <t>questions</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>able</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>able</t>
+          <t>present</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>significantly</t>
+          <t>reports</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>know</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>underserved</t>
+          <t>influence</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>asked</t>
+          <t>early</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>10th</t>
+          <t>predicted</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>questions</t>
+          <t>observed</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>continuous</t>
+          <t>high</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>taught</t>
+          <t>authoritative</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
+          <t>studies</t>
+        </is>
+      </c>
+      <c r="LC1" s="1" t="inlineStr">
+        <is>
+          <t>authority</t>
+        </is>
+      </c>
+      <c r="LD1" s="1" t="inlineStr">
+        <is>
+          <t>earlier</t>
+        </is>
+      </c>
+      <c r="LE1" s="1" t="inlineStr">
+        <is>
+          <t>questionnaire</t>
+        </is>
+      </c>
+      <c r="LF1" s="1" t="inlineStr">
+        <is>
+          <t>developed</t>
+        </is>
+      </c>
+      <c r="LG1" s="1" t="inlineStr">
+        <is>
+          <t>items</t>
+        </is>
+      </c>
+      <c r="LH1" s="1" t="inlineStr">
+        <is>
+          <t>measure</t>
+        </is>
+      </c>
+      <c r="LI1" s="1" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="LJ1" s="1" t="inlineStr">
+        <is>
+          <t>intelligence</t>
+        </is>
+      </c>
+      <c r="LK1" s="1" t="inlineStr">
+        <is>
+          <t>associated</t>
+        </is>
+      </c>
+      <c r="LL1" s="1" t="inlineStr">
+        <is>
+          <t>whose</t>
+        </is>
+      </c>
+      <c r="LM1" s="1" t="inlineStr">
+        <is>
           <t>models</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LN1" s="1" t="inlineStr">
+        <is>
+          <t>collaboration</t>
+        </is>
+      </c>
+      <c r="LO1" s="1" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="LP1" s="1" t="inlineStr">
+        <is>
+          <t>aptitude</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>methodology</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>components</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>select</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>skills</t>
         </is>
       </c>
-      <c r="LE1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>see</t>
         </is>
       </c>
-      <c r="LF1" s="1" t="inlineStr">
-        <is>
-          <t>aptitude</t>
-        </is>
-      </c>
-      <c r="LG1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="LH1" s="1" t="inlineStr">
-        <is>
-          <t>authority</t>
-        </is>
-      </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>investigate</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
         <is>
           <t>theoretical</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
-        <is>
-          <t>collaboration</t>
-        </is>
-      </c>
-      <c r="LK1" s="1" t="inlineStr">
-        <is>
-          <t>five</t>
-        </is>
-      </c>
-      <c r="LL1" s="1" t="inlineStr">
-        <is>
-          <t>earlier</t>
-        </is>
-      </c>
-      <c r="LM1" s="1" t="inlineStr">
-        <is>
-          <t>four</t>
-        </is>
-      </c>
-      <c r="LN1" s="1" t="inlineStr">
-        <is>
-          <t>thus</t>
-        </is>
-      </c>
-      <c r="LO1" s="1" t="inlineStr">
-        <is>
-          <t>authoritative</t>
-        </is>
-      </c>
-      <c r="LP1" s="1" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="LQ1" s="1" t="inlineStr">
-        <is>
-          <t>questionnaire</t>
-        </is>
-      </c>
-      <c r="LR1" s="1" t="inlineStr">
-        <is>
-          <t>teacher</t>
-        </is>
-      </c>
-      <c r="LS1" s="1" t="inlineStr">
-        <is>
-          <t>studies</t>
-        </is>
-      </c>
-      <c r="LT1" s="1" t="inlineStr">
-        <is>
-          <t>know</t>
-        </is>
-      </c>
-      <c r="LU1" s="1" t="inlineStr">
-        <is>
-          <t>associated</t>
-        </is>
-      </c>
-      <c r="LV1" s="1" t="inlineStr">
-        <is>
-          <t>whose</t>
-        </is>
-      </c>
-      <c r="LW1" s="1" t="inlineStr">
-        <is>
-          <t>intelligence</t>
-        </is>
-      </c>
-      <c r="LX1" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>documenting</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>components</t>
+          <t>discusses</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>discusses</t>
+          <t>widely</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
+          <t>gauge</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>e.g.</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>programs</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
-        <is>
-          <t>early</t>
-        </is>
-      </c>
-      <c r="MD1" s="1" t="inlineStr">
-        <is>
-          <t>e.g.</t>
-        </is>
-      </c>
-      <c r="ME1" s="1" t="inlineStr">
-        <is>
-          <t>documenting</t>
-        </is>
-      </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>gauge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
+          <t>differentiated</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>influenced</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>differentiation</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
           <t>gives</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>gaps</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>methods</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>emotional</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>lag</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>associations</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
+          <t>finally</t>
+        </is>
+      </c>
+      <c r="MQ1" s="1" t="inlineStr">
+        <is>
+          <t>relevance</t>
+        </is>
+      </c>
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>hierarchical</t>
         </is>
       </c>
-      <c r="MI1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
         <is>
           <t>interested</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
-        <is>
-          <t>lag</t>
-        </is>
-      </c>
-      <c r="MK1" s="1" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="ML1" s="1" t="inlineStr">
-        <is>
-          <t>methods</t>
-        </is>
-      </c>
-      <c r="MM1" s="1" t="inlineStr">
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>surrounding</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>effective</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>pace</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>many</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>purposes</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>practitioners</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>impact</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>intellectually</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>definition</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>defined</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>define</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>context</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>conception</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="MN1" s="1" t="inlineStr">
-        <is>
-          <t>purposes</t>
-        </is>
-      </c>
-      <c r="MO1" s="1" t="inlineStr">
-        <is>
-          <t>developed</t>
-        </is>
-      </c>
-      <c r="MP1" s="1" t="inlineStr">
-        <is>
-          <t>measure</t>
-        </is>
-      </c>
-      <c r="MQ1" s="1" t="inlineStr">
-        <is>
-          <t>defined</t>
-        </is>
-      </c>
-      <c r="MR1" s="1" t="inlineStr">
-        <is>
-          <t>observed</t>
-        </is>
-      </c>
-      <c r="MS1" s="1" t="inlineStr">
-        <is>
-          <t>investigate</t>
-        </is>
-      </c>
-      <c r="MT1" s="1" t="inlineStr">
-        <is>
-          <t>define</t>
-        </is>
-      </c>
-      <c r="MU1" s="1" t="inlineStr">
-        <is>
-          <t>programs</t>
-        </is>
-      </c>
-      <c r="MV1" s="1" t="inlineStr">
-        <is>
-          <t>widely</t>
-        </is>
-      </c>
-      <c r="MW1" s="1" t="inlineStr">
-        <is>
-          <t>practitioners</t>
-        </is>
-      </c>
-      <c r="MX1" s="1" t="inlineStr">
-        <is>
-          <t>finally</t>
-        </is>
-      </c>
-      <c r="MY1" s="1" t="inlineStr">
-        <is>
-          <t>predicted</t>
-        </is>
-      </c>
-      <c r="MZ1" s="1" t="inlineStr">
-        <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="NA1" s="1" t="inlineStr">
-        <is>
-          <t>methodology</t>
-        </is>
-      </c>
-      <c r="NB1" s="1" t="inlineStr">
-        <is>
-          <t>conception</t>
-        </is>
-      </c>
-      <c r="NC1" s="1" t="inlineStr">
-        <is>
-          <t>emotional</t>
-        </is>
-      </c>
-      <c r="ND1" s="1" t="inlineStr">
-        <is>
-          <t>associations</t>
-        </is>
-      </c>
-      <c r="NE1" s="1" t="inlineStr">
-        <is>
-          <t>definition</t>
-        </is>
-      </c>
-      <c r="NF1" s="1" t="inlineStr">
-        <is>
-          <t>relevance</t>
-        </is>
-      </c>
-      <c r="NG1" s="1" t="inlineStr">
-        <is>
-          <t>reports</t>
-        </is>
-      </c>
-      <c r="NH1" s="1" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
-      <c r="NI1" s="1" t="inlineStr">
-        <is>
-          <t>items</t>
-        </is>
-      </c>
-      <c r="NJ1" s="1" t="inlineStr">
-        <is>
-          <t>surrounding</t>
-        </is>
-      </c>
-      <c r="NK1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
       <c r="NL1" s="1" t="inlineStr">
         <is>
-          <t>when</t>
+          <t>evidence</t>
         </is>
       </c>
       <c r="NM1" s="1" t="inlineStr">
         <is>
-          <t>implemented</t>
+          <t>pathway</t>
         </is>
       </c>
       <c r="NN1" s="1" t="inlineStr">
         <is>
-          <t>effective</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="NO1" s="1" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>years</t>
         </is>
       </c>
       <c r="NP1" s="1" t="inlineStr">
         <is>
-          <t>evidence</t>
+          <t>set</t>
         </is>
       </c>
       <c r="NQ1" s="1" t="inlineStr">
         <is>
-          <t>influence</t>
+          <t>work</t>
         </is>
       </c>
       <c r="NR1" s="1" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>best</t>
         </is>
       </c>
       <c r="NS1" s="1" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>yet</t>
         </is>
       </c>
       <c r="NT1" s="1" t="inlineStr">
         <is>
-          <t>pace</t>
+          <t>revealed</t>
         </is>
       </c>
       <c r="NU1" s="1" t="inlineStr">
         <is>
-          <t>intellectually</t>
+          <t>exceptionalities</t>
         </is>
       </c>
       <c r="NV1" s="1" t="inlineStr">
         <is>
-          <t>expected</t>
+          <t>represented</t>
         </is>
       </c>
       <c r="NW1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>classrooms</t>
         </is>
       </c>
       <c r="NX1" s="1" t="inlineStr">
         <is>
-          <t>yet</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="NY1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>barriers</t>
         </is>
       </c>
       <c r="NZ1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>perceive</t>
         </is>
       </c>
       <c r="OA1" s="1" t="inlineStr">
         <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="OB1" s="1" t="inlineStr">
+        <is>
+          <t>mask</t>
+        </is>
+      </c>
+      <c r="OC1" s="1" t="inlineStr">
+        <is>
+          <t>lower</t>
+        </is>
+      </c>
+      <c r="OD1" s="1" t="inlineStr">
+        <is>
+          <t>experienced</t>
+        </is>
+      </c>
+      <c r="OE1" s="1" t="inlineStr">
+        <is>
+          <t>emerged</t>
+        </is>
+      </c>
+      <c r="OF1" s="1" t="inlineStr">
+        <is>
           <t>outside</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="OC1" s="1" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-      <c r="OD1" s="1" t="inlineStr">
-        <is>
-          <t>increase</t>
-        </is>
-      </c>
-      <c r="OE1" s="1" t="inlineStr">
-        <is>
-          <t>experienced</t>
-        </is>
-      </c>
-      <c r="OF1" s="1" t="inlineStr">
-        <is>
-          <t>emerged</t>
-        </is>
-      </c>
       <c r="OG1" s="1" t="inlineStr">
         <is>
-          <t>perceive</t>
+          <t>behavioral</t>
         </is>
       </c>
       <c r="OH1" s="1" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>identify</t>
         </is>
       </c>
       <c r="OI1" s="1" t="inlineStr">
         <is>
-          <t>barriers</t>
+          <t>report</t>
         </is>
       </c>
       <c r="OJ1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>dichotomous</t>
         </is>
       </c>
       <c r="OK1" s="1" t="inlineStr">
         <is>
-          <t>exceptionalities</t>
+          <t>eighth</t>
         </is>
       </c>
       <c r="OL1" s="1" t="inlineStr">
         <is>
-          <t>behavioral</t>
+          <t>national</t>
         </is>
       </c>
       <c r="OM1" s="1" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>enrolled</t>
         </is>
       </c>
       <c r="ON1" s="1" t="inlineStr">
         <is>
-          <t>mask</t>
+          <t>class</t>
         </is>
       </c>
       <c r="OO1" s="1" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>example</t>
         </is>
       </c>
       <c r="OP1" s="1" t="inlineStr">
         <is>
+          <t>techniques</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>fit</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
+          <t>deviation</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>commonly</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>loop</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>assessed</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>student-level</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>placement</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>taking</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>odds</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>independent</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>interpret</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>effectiveness</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>biology</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>designs</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>concludes</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>physical</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>application</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>comparison</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
+          <t>cohort</t>
+        </is>
+      </c>
+      <c r="PT1" s="1" t="inlineStr">
+        <is>
+          <t>activities</t>
+        </is>
+      </c>
+      <c r="PU1" s="1" t="inlineStr">
+        <is>
+          <t>phonological</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="OQ1" s="1" t="inlineStr">
-        <is>
-          <t>fit</t>
-        </is>
-      </c>
-      <c r="OR1" s="1" t="inlineStr">
-        <is>
-          <t>taking</t>
-        </is>
-      </c>
-      <c r="OS1" s="1" t="inlineStr">
-        <is>
-          <t>student-level</t>
-        </is>
-      </c>
-      <c r="OT1" s="1" t="inlineStr">
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>engineering</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>late</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>symbols</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>majors</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>written</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
         <is>
           <t>socioeconomic</t>
         </is>
       </c>
-      <c r="OU1" s="1" t="inlineStr">
-        <is>
-          <t>identify</t>
-        </is>
-      </c>
-      <c r="OV1" s="1" t="inlineStr">
-        <is>
-          <t>placement</t>
-        </is>
-      </c>
-      <c r="OW1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="OX1" s="1" t="inlineStr">
-        <is>
-          <t>odds</t>
-        </is>
-      </c>
-      <c r="OY1" s="1" t="inlineStr">
-        <is>
-          <t>national</t>
-        </is>
-      </c>
-      <c r="OZ1" s="1" t="inlineStr">
-        <is>
-          <t>influenced</t>
-        </is>
-      </c>
-      <c r="PA1" s="1" t="inlineStr">
-        <is>
-          <t>interpret</t>
-        </is>
-      </c>
-      <c r="PB1" s="1" t="inlineStr">
-        <is>
-          <t>independent</t>
-        </is>
-      </c>
-      <c r="PC1" s="1" t="inlineStr">
-        <is>
-          <t>example</t>
-        </is>
-      </c>
-      <c r="PD1" s="1" t="inlineStr">
-        <is>
-          <t>techniques</t>
-        </is>
-      </c>
-      <c r="PE1" s="1" t="inlineStr">
-        <is>
-          <t>enrolled</t>
-        </is>
-      </c>
-      <c r="PF1" s="1" t="inlineStr">
-        <is>
-          <t>eighth</t>
-        </is>
-      </c>
-      <c r="PG1" s="1" t="inlineStr">
-        <is>
-          <t>dichotomous</t>
-        </is>
-      </c>
-      <c r="PH1" s="1" t="inlineStr">
-        <is>
-          <t>course</t>
-        </is>
-      </c>
-      <c r="PI1" s="1" t="inlineStr">
-        <is>
-          <t>commonly</t>
-        </is>
-      </c>
-      <c r="PJ1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="PK1" s="1" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="PL1" s="1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-      <c r="PM1" s="1" t="inlineStr">
-        <is>
-          <t>assessed</t>
-        </is>
-      </c>
-      <c r="PN1" s="1" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="PO1" s="1" t="inlineStr">
-        <is>
-          <t>technique</t>
-        </is>
-      </c>
-      <c r="PP1" s="1" t="inlineStr">
-        <is>
-          <t>through</t>
-        </is>
-      </c>
-      <c r="PQ1" s="1" t="inlineStr">
-        <is>
-          <t>that</t>
-        </is>
-      </c>
-      <c r="PR1" s="1" t="inlineStr">
-        <is>
-          <t>differentiated</t>
-        </is>
-      </c>
-      <c r="PS1" s="1" t="inlineStr">
-        <is>
-          <t>differentiation</t>
-        </is>
-      </c>
-      <c r="PT1" s="1" t="inlineStr">
-        <is>
-          <t>phonological</t>
-        </is>
-      </c>
-      <c r="PU1" s="1" t="inlineStr">
-        <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="PV1" s="1" t="inlineStr">
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>evaluating</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>evaluate</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>features</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
         <is>
           <t>acknowledge</t>
         </is>
       </c>
-      <c r="PW1" s="1" t="inlineStr">
-        <is>
-          <t>activities</t>
-        </is>
-      </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
-      </c>
-      <c r="PY1" s="1" t="inlineStr">
-        <is>
-          <t>engineering</t>
-        </is>
-      </c>
-      <c r="PZ1" s="1" t="inlineStr">
-        <is>
-          <t>symbols</t>
-        </is>
-      </c>
-      <c r="QA1" s="1" t="inlineStr">
-        <is>
-          <t>loop</t>
-        </is>
-      </c>
-      <c r="QB1" s="1" t="inlineStr">
-        <is>
-          <t>written</t>
-        </is>
-      </c>
-      <c r="QC1" s="1" t="inlineStr">
-        <is>
-          <t>gaps</t>
-        </is>
-      </c>
-      <c r="QD1" s="1" t="inlineStr">
-        <is>
-          <t>late</t>
-        </is>
-      </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>majors</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
-        <is>
-          <t>biology</t>
-        </is>
-      </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>suggest</t>
-        </is>
-      </c>
-      <c r="QH1" s="1" t="inlineStr">
-        <is>
-          <t>from</t>
-        </is>
-      </c>
-      <c r="QI1" s="1" t="inlineStr">
-        <is>
-          <t>physical</t>
-        </is>
-      </c>
       <c r="QJ1" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>20</t>
         </is>
       </c>
       <c r="QK1" s="1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>and/or</t>
         </is>
       </c>
       <c r="QL1" s="1" t="inlineStr">
         <is>
-          <t>deviation</t>
+          <t>philosophical</t>
         </is>
       </c>
       <c r="QM1" s="1" t="inlineStr">
         <is>
-          <t>cohort</t>
+          <t>writing</t>
         </is>
       </c>
       <c r="QN1" s="1" t="inlineStr">
         <is>
-          <t>lower</t>
+          <t>populations/underserved</t>
         </is>
       </c>
       <c r="QO1" s="1" t="inlineStr">
         <is>
-          <t>pathway</t>
+          <t>seek</t>
         </is>
       </c>
       <c r="QP1" s="1" t="inlineStr">
         <is>
-          <t>comparison</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="QQ1" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>previous</t>
         </is>
       </c>
       <c r="QR1" s="1" t="inlineStr">
         <is>
-          <t>represented</t>
+          <t>agenda</t>
         </is>
       </c>
       <c r="QS1" s="1" t="inlineStr">
         <is>
+          <t>rigor</t>
+        </is>
+      </c>
+      <c r="QT1" s="1" t="inlineStr">
+        <is>
+          <t>articulate</t>
+        </is>
+      </c>
+      <c r="QU1" s="1" t="inlineStr">
+        <is>
+          <t>assumptions</t>
+        </is>
+      </c>
+      <c r="QV1" s="1" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="QW1" s="1" t="inlineStr">
+        <is>
+          <t>goals</t>
+        </is>
+      </c>
+      <c r="QX1" s="1" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="QY1" s="1" t="inlineStr">
+        <is>
+          <t>historical</t>
+        </is>
+      </c>
+      <c r="QZ1" s="1" t="inlineStr">
+        <is>
+          <t>continuities</t>
+        </is>
+      </c>
+      <c r="RA1" s="1" t="inlineStr">
+        <is>
+          <t>term</t>
+        </is>
+      </c>
+      <c r="RB1" s="1" t="inlineStr">
+        <is>
+          <t>explicit</t>
+        </is>
+      </c>
+      <c r="RC1" s="1" t="inlineStr">
+        <is>
+          <t>elucidate</t>
+        </is>
+      </c>
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
+          <t>distinct</t>
+        </is>
+      </c>
+      <c r="RE1" s="1" t="inlineStr">
+        <is>
+          <t>middle</t>
+        </is>
+      </c>
+      <c r="RF1" s="1" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="RG1" s="1" t="inlineStr">
+        <is>
+          <t>discontinuities</t>
+        </is>
+      </c>
+      <c r="RH1" s="1" t="inlineStr">
+        <is>
+          <t>delineate</t>
+        </is>
+      </c>
+      <c r="RI1" s="1" t="inlineStr">
+        <is>
+          <t>ultimate</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>conceptual</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
+        <is>
+          <t>paradigmatic</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>common</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
+        <is>
+          <t>assuming</t>
+        </is>
+      </c>
+      <c r="RN1" s="1" t="inlineStr">
+        <is>
+          <t>secured</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
+        <is>
+          <t>gifts</t>
+        </is>
+      </c>
+      <c r="RP1" s="1" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="RQ1" s="1" t="inlineStr">
+        <is>
+          <t>influencing</t>
+        </is>
+      </c>
+      <c r="RR1" s="1" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>likely</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
+        <is>
+          <t>coded</t>
+        </is>
+      </c>
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>maintaining</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
+        <is>
+          <t>outlined</t>
+        </is>
+      </c>
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
+          <t>peers</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>various</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
+          <t>played</t>
+        </is>
+      </c>
+      <c r="RZ1" s="1" t="inlineStr">
+        <is>
+          <t>recognizing</t>
+        </is>
+      </c>
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>shaped</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>simultaneously</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="SD1" s="1" t="inlineStr">
+        <is>
+          <t>sought</t>
+        </is>
+      </c>
+      <c r="SE1" s="1" t="inlineStr">
+        <is>
           <t>supports</t>
         </is>
       </c>
-      <c r="QT1" s="1" t="inlineStr">
-        <is>
-          <t>assumptions</t>
-        </is>
-      </c>
-      <c r="QU1" s="1" t="inlineStr">
-        <is>
-          <t>concludes</t>
-        </is>
-      </c>
-      <c r="QV1" s="1" t="inlineStr">
-        <is>
-          <t>delineate</t>
-        </is>
-      </c>
-      <c r="QW1" s="1" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="QX1" s="1" t="inlineStr">
-        <is>
-          <t>continuities</t>
-        </is>
-      </c>
-      <c r="QY1" s="1" t="inlineStr">
-        <is>
-          <t>conceptual</t>
-        </is>
-      </c>
-      <c r="QZ1" s="1" t="inlineStr">
-        <is>
-          <t>designs</t>
-        </is>
-      </c>
-      <c r="RA1" s="1" t="inlineStr">
-        <is>
-          <t>common</t>
-        </is>
-      </c>
-      <c r="RB1" s="1" t="inlineStr">
-        <is>
-          <t>articulate</t>
-        </is>
-      </c>
-      <c r="RC1" s="1" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="RD1" s="1" t="inlineStr">
-        <is>
-          <t>evaluate</t>
-        </is>
-      </c>
-      <c r="RE1" s="1" t="inlineStr">
-        <is>
-          <t>agenda</t>
-        </is>
-      </c>
-      <c r="RF1" s="1" t="inlineStr">
-        <is>
-          <t>evaluating</t>
-        </is>
-      </c>
-      <c r="RG1" s="1" t="inlineStr">
-        <is>
-          <t>features</t>
-        </is>
-      </c>
-      <c r="RH1" s="1" t="inlineStr">
-        <is>
-          <t>writing</t>
-        </is>
-      </c>
-      <c r="RI1" s="1" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="RJ1" s="1" t="inlineStr">
-        <is>
-          <t>order</t>
-        </is>
-      </c>
-      <c r="RK1" s="1" t="inlineStr">
-        <is>
-          <t>coded</t>
-        </is>
-      </c>
-      <c r="RL1" s="1" t="inlineStr">
-        <is>
-          <t>discontinuities</t>
-        </is>
-      </c>
-      <c r="RM1" s="1" t="inlineStr">
-        <is>
-          <t>distinct</t>
-        </is>
-      </c>
-      <c r="RN1" s="1" t="inlineStr">
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>fostering</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
+          <t>formally</t>
+        </is>
+      </c>
+      <c r="SH1" s="1" t="inlineStr">
+        <is>
+          <t>advocate</t>
+        </is>
+      </c>
+      <c r="SI1" s="1" t="inlineStr">
+        <is>
+          <t>account</t>
+        </is>
+      </c>
+      <c r="SJ1" s="1" t="inlineStr">
         <is>
           <t>evaluations</t>
         </is>
       </c>
-      <c r="RO1" s="1" t="inlineStr">
-        <is>
-          <t>elucidate</t>
-        </is>
-      </c>
-      <c r="RP1" s="1" t="inlineStr">
-        <is>
-          <t>advocate</t>
-        </is>
-      </c>
-      <c r="RQ1" s="1" t="inlineStr">
-        <is>
-          <t>and/or</t>
-        </is>
-      </c>
-      <c r="RR1" s="1" t="inlineStr">
+      <c r="SK1" s="1" t="inlineStr">
         <is>
           <t>areas</t>
         </is>
       </c>
-      <c r="RS1" s="1" t="inlineStr">
-        <is>
-          <t>assuming</t>
-        </is>
-      </c>
-      <c r="RT1" s="1" t="inlineStr">
-        <is>
-          <t>ultimate</t>
-        </is>
-      </c>
-      <c r="RU1" s="1" t="inlineStr">
-        <is>
-          <t>term</t>
-        </is>
-      </c>
-      <c r="RV1" s="1" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="RW1" s="1" t="inlineStr">
-        <is>
-          <t>seek</t>
-        </is>
-      </c>
-      <c r="RX1" s="1" t="inlineStr">
-        <is>
-          <t>rigor</t>
-        </is>
-      </c>
-      <c r="RY1" s="1" t="inlineStr">
-        <is>
-          <t>philosophical</t>
-        </is>
-      </c>
-      <c r="RZ1" s="1" t="inlineStr">
-        <is>
-          <t>sought</t>
-        </is>
-      </c>
-      <c r="SA1" s="1" t="inlineStr">
-        <is>
-          <t>paradigmatic</t>
-        </is>
-      </c>
-      <c r="SB1" s="1" t="inlineStr">
-        <is>
-          <t>nature</t>
-        </is>
-      </c>
-      <c r="SC1" s="1" t="inlineStr">
-        <is>
-          <t>historical</t>
-        </is>
-      </c>
-      <c r="SD1" s="1" t="inlineStr">
-        <is>
-          <t>goals</t>
-        </is>
-      </c>
-      <c r="SE1" s="1" t="inlineStr">
-        <is>
-          <t>application</t>
-        </is>
-      </c>
-      <c r="SF1" s="1" t="inlineStr">
-        <is>
-          <t>explicit</t>
-        </is>
-      </c>
-      <c r="SG1" s="1" t="inlineStr">
-        <is>
-          <t>report</t>
-        </is>
-      </c>
-      <c r="SH1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveness</t>
-        </is>
-      </c>
-      <c r="SI1" s="1" t="inlineStr">
-        <is>
-          <t>played</t>
-        </is>
-      </c>
-      <c r="SJ1" s="1" t="inlineStr">
+      <c r="SL1" s="1" t="inlineStr">
         <is>
           <t>investigation</t>
         </is>
       </c>
-      <c r="SK1" s="1" t="inlineStr">
-        <is>
-          <t>various</t>
-        </is>
-      </c>
-      <c r="SL1" s="1" t="inlineStr">
-        <is>
-          <t>secured</t>
-        </is>
-      </c>
       <c r="SM1" s="1" t="inlineStr">
         <is>
-          <t>shaped</t>
+          <t>top</t>
         </is>
       </c>
       <c r="SN1" s="1" t="inlineStr">
         <is>
-          <t>outlined</t>
+          <t>underrepresentation</t>
         </is>
       </c>
       <c r="SO1" s="1" t="inlineStr">
         <is>
-          <t>simultaneously</t>
+          <t>explore</t>
         </is>
       </c>
       <c r="SP1" s="1" t="inlineStr">
         <is>
-          <t>maintaining</t>
+          <t>bore</t>
         </is>
       </c>
       <c r="SQ1" s="1" t="inlineStr">
         <is>
-          <t>middle</t>
+          <t>took</t>
         </is>
       </c>
       <c r="SR1" s="1" t="inlineStr">
         <is>
-          <t>classrooms</t>
+          <t>community</t>
         </is>
       </c>
       <c r="SS1" s="1" t="inlineStr">
         <is>
-          <t>influencing</t>
+          <t>naglieri</t>
         </is>
       </c>
       <c r="ST1" s="1" t="inlineStr">
         <is>
-          <t>peers</t>
+          <t>form</t>
         </is>
       </c>
       <c r="SU1" s="1" t="inlineStr">
         <is>
-          <t>likely</t>
+          <t>consistent</t>
         </is>
       </c>
       <c r="SV1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>culturally</t>
         </is>
       </c>
       <c r="SW1" s="1" t="inlineStr">
         <is>
-          <t>account</t>
+          <t>compared</t>
         </is>
       </c>
       <c r="SX1" s="1" t="inlineStr">
         <is>
-          <t>fostering</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="SY1" s="1" t="inlineStr">
         <is>
-          <t>gifts</t>
+          <t>subtest</t>
         </is>
       </c>
       <c r="SZ1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>statistically</t>
         </is>
       </c>
       <c r="TA1" s="1" t="inlineStr">
         <is>
-          <t>formally</t>
+          <t>states</t>
         </is>
       </c>
       <c r="TB1" s="1" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>size</t>
         </is>
       </c>
       <c r="TC1" s="1" t="inlineStr">
         <is>
-          <t>recognizing</t>
+          <t>sites</t>
         </is>
       </c>
       <c r="TD1" s="1" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>hispanics</t>
         </is>
       </c>
       <c r="TE1" s="1" t="inlineStr">
         <is>
+          <t>limits</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>alleviated</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>exist</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>exploratory</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>establishes</t>
+        </is>
+      </c>
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>performing</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>dramatic</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>different</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
+          <t>brought</t>
+        </is>
+      </c>
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>appreciable</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>decided</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
+        <is>
+          <t>attempts</t>
+        </is>
+      </c>
+      <c r="TS1" s="1" t="inlineStr">
+        <is>
+          <t>decide</t>
+        </is>
+      </c>
+      <c r="TT1" s="1" t="inlineStr">
+        <is>
+          <t>decade</t>
+        </is>
+      </c>
+      <c r="TU1" s="1" t="inlineStr">
+        <is>
+          <t>burden</t>
+        </is>
+      </c>
+      <c r="TV1" s="1" t="inlineStr">
+        <is>
+          <t>homeschooled</t>
+        </is>
+      </c>
+      <c r="TW1" s="1" t="inlineStr">
+        <is>
+          <t>interviewed</t>
+        </is>
+      </c>
+      <c r="TX1" s="1" t="inlineStr">
+        <is>
+          <t>isolation</t>
+        </is>
+      </c>
+      <c r="TY1" s="1" t="inlineStr">
+        <is>
+          <t>move</t>
+        </is>
+      </c>
+      <c r="TZ1" s="1" t="inlineStr">
+        <is>
+          <t>numerous</t>
+        </is>
+      </c>
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>past</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
+          <t>perspective</t>
+        </is>
+      </c>
+      <c r="UC1" s="1" t="inlineStr">
+        <is>
+          <t>reveal</t>
+        </is>
+      </c>
+      <c r="UD1" s="1" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
+      <c r="UE1" s="1" t="inlineStr">
+        <is>
+          <t>though</t>
+        </is>
+      </c>
+      <c r="UF1" s="1" t="inlineStr">
+        <is>
+          <t>ultimately</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
+        <is>
+          <t>understand</t>
+        </is>
+      </c>
+      <c r="UH1" s="1" t="inlineStr">
+        <is>
+          <t>witnessed</t>
+        </is>
+      </c>
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>either</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>age/developmental</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>particularly</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>flexible</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>awareness</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>ownership</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>mainly</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>in-depth</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>informed</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>investigates</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>spatial</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>effect</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>learn</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>social-emotionally</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>learner</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>several</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>helping</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>question</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>profiles</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>profile</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>nominations</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>nomination</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>mixed-methods</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>challenging</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>naturalist</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>namely</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>implementation</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>flexibility</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>moderately</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>adapted</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>childhood</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>covered</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>.001</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>deeper</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>develop</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>allowing</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>although</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>assist</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>beneficial</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>broad</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>circumvent</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>coexisting</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>descriptions</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>facilitators</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>increasing</t>
+        </is>
+      </c>
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>relevant</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>recognition</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
+        <is>
+          <t>management</t>
+        </is>
+      </c>
+      <c r="WT1" s="1" t="inlineStr">
+        <is>
+          <t>pertaining</t>
+        </is>
+      </c>
+      <c r="WU1" s="1" t="inlineStr">
+        <is>
+          <t>goal</t>
+        </is>
+      </c>
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
+          <t>multivariate</t>
+        </is>
+      </c>
+      <c r="WW1" s="1" t="inlineStr">
+        <is>
+          <t>multifaceted</t>
+        </is>
+      </c>
+      <c r="WX1" s="1" t="inlineStr">
+        <is>
+          <t>meet</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>little</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>individuals</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>hlm</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
           <t>standards</t>
         </is>
       </c>
-      <c r="TF1" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="TG1" s="1" t="inlineStr">
-        <is>
-          <t>awareness</t>
-        </is>
-      </c>
-      <c r="TH1" s="1" t="inlineStr">
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>iowa</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>gaining</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>expertise</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>expanding</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>k-2</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>consisted</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>conclude</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>seventeen</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>policies</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
         <is>
           <t>three-hundred</t>
         </is>
       </c>
-      <c r="TI1" s="1" t="inlineStr">
-        <is>
-          <t>previous</t>
-        </is>
-      </c>
-      <c r="TJ1" s="1" t="inlineStr">
-        <is>
-          <t>populations/underserved</t>
-        </is>
-      </c>
-      <c r="TK1" s="1" t="inlineStr">
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>divergent</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>limitations</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>intellectual</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>possibilities</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>generally</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>ranged</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>favoring</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>field-test</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
         <is>
           <t>understood</t>
         </is>
       </c>
-      <c r="TL1" s="1" t="inlineStr">
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>strengths</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>discussion</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>classified</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
         <is>
           <t>563</t>
         </is>
       </c>
-      <c r="TM1" s="1" t="inlineStr">
-        <is>
-          <t>iowa</t>
-        </is>
-      </c>
-      <c r="TN1" s="1" t="inlineStr">
-        <is>
-          <t>k-2</t>
-        </is>
-      </c>
-      <c r="TO1" s="1" t="inlineStr">
-        <is>
-          <t>m2</t>
-        </is>
-      </c>
-      <c r="TP1" s="1" t="inlineStr">
-        <is>
-          <t>culturally</t>
-        </is>
-      </c>
-      <c r="TQ1" s="1" t="inlineStr">
-        <is>
-          <t>compared</t>
-        </is>
-      </c>
-      <c r="TR1" s="1" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="TS1" s="1" t="inlineStr">
-        <is>
-          <t>performing</t>
-        </is>
-      </c>
-      <c r="TT1" s="1" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="TU1" s="1" t="inlineStr">
-        <is>
-          <t>subtest</t>
-        </is>
-      </c>
-      <c r="TV1" s="1" t="inlineStr">
-        <is>
-          <t>statistically</t>
-        </is>
-      </c>
-      <c r="TW1" s="1" t="inlineStr">
-        <is>
-          <t>states</t>
-        </is>
-      </c>
-      <c r="TX1" s="1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="TY1" s="1" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="TZ1" s="1" t="inlineStr">
-        <is>
-          <t>sites</t>
-        </is>
-      </c>
-      <c r="UA1" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="UB1" s="1" t="inlineStr">
-        <is>
-          <t>consistent</t>
-        </is>
-      </c>
-      <c r="UC1" s="1" t="inlineStr">
-        <is>
-          <t>community</t>
-        </is>
-      </c>
-      <c r="UD1" s="1" t="inlineStr">
-        <is>
-          <t>conclude</t>
-        </is>
-      </c>
-      <c r="UE1" s="1" t="inlineStr">
-        <is>
-          <t>policies</t>
-        </is>
-      </c>
-      <c r="UF1" s="1" t="inlineStr">
-        <is>
-          <t>pertaining</t>
-        </is>
-      </c>
-      <c r="UG1" s="1" t="inlineStr">
-        <is>
-          <t>recognition</t>
-        </is>
-      </c>
-      <c r="UH1" s="1" t="inlineStr">
-        <is>
-          <t>multivariate</t>
-        </is>
-      </c>
-      <c r="UI1" s="1" t="inlineStr">
-        <is>
-          <t>multifaceted</t>
-        </is>
-      </c>
-      <c r="UJ1" s="1" t="inlineStr">
-        <is>
-          <t>meet</t>
-        </is>
-      </c>
-      <c r="UK1" s="1" t="inlineStr">
-        <is>
-          <t>little</t>
-        </is>
-      </c>
-      <c r="UL1" s="1" t="inlineStr">
-        <is>
-          <t>relevant</t>
-        </is>
-      </c>
-      <c r="UM1" s="1" t="inlineStr">
-        <is>
-          <t>goal</t>
-        </is>
-      </c>
-      <c r="UN1" s="1" t="inlineStr">
-        <is>
-          <t>revealed</t>
-        </is>
-      </c>
-      <c r="UO1" s="1" t="inlineStr">
-        <is>
-          <t>individuals</t>
-        </is>
-      </c>
-      <c r="UP1" s="1" t="inlineStr">
-        <is>
-          <t>limits</t>
-        </is>
-      </c>
-      <c r="UQ1" s="1" t="inlineStr">
-        <is>
-          <t>increasing</t>
-        </is>
-      </c>
-      <c r="UR1" s="1" t="inlineStr">
-        <is>
-          <t>gaining</t>
-        </is>
-      </c>
-      <c r="US1" s="1" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="UT1" s="1" t="inlineStr">
-        <is>
-          <t>underrepresentation</t>
-        </is>
-      </c>
-      <c r="UU1" s="1" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>took</t>
-        </is>
-      </c>
-      <c r="UW1" s="1" t="inlineStr">
-        <is>
-          <t>expertise</t>
-        </is>
-      </c>
-      <c r="UX1" s="1" t="inlineStr">
-        <is>
-          <t>expanding</t>
-        </is>
-      </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>naglieri</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>hispanics</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>seventeen</t>
-        </is>
-      </c>
-      <c r="VB1" s="1" t="inlineStr">
-        <is>
-          <t>consisted</t>
-        </is>
-      </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>form</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>hlm</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>question</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>strengths</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>implementation</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
-        <is>
-          <t>in-depth</t>
-        </is>
-      </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>assist</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>generally</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>particularly</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>.001</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>investigates</t>
-        </is>
-      </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>learn</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>moderately</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>learner</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
-        <is>
-          <t>intellectual</t>
-        </is>
-      </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="VV1" s="1" t="inlineStr">
-        <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="VX1" s="1" t="inlineStr">
-        <is>
-          <t>limitations</t>
-        </is>
-      </c>
-      <c r="VY1" s="1" t="inlineStr">
-        <is>
-          <t>management</t>
-        </is>
-      </c>
-      <c r="VZ1" s="1" t="inlineStr">
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>directions</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>focused</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="WA1" s="1" t="inlineStr">
-        <is>
-          <t>divergent</t>
-        </is>
-      </c>
-      <c r="WB1" s="1" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="WC1" s="1" t="inlineStr">
-        <is>
-          <t>directions</t>
-        </is>
-      </c>
-      <c r="WD1" s="1" t="inlineStr">
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>among</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
         <is>
           <t>answer</t>
         </is>
       </c>
-      <c r="WE1" s="1" t="inlineStr">
-        <is>
-          <t>circumvent</t>
-        </is>
-      </c>
-      <c r="WF1" s="1" t="inlineStr">
-        <is>
-          <t>coexisting</t>
-        </is>
-      </c>
-      <c r="WG1" s="1" t="inlineStr">
-        <is>
-          <t>descriptions</t>
-        </is>
-      </c>
-      <c r="WH1" s="1" t="inlineStr">
-        <is>
-          <t>do</t>
-        </is>
-      </c>
-      <c r="WI1" s="1" t="inlineStr">
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>first-grade</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
         <is>
           <t>artistically</t>
         </is>
       </c>
-      <c r="WJ1" s="1" t="inlineStr">
-        <is>
-          <t>facilitators</t>
-        </is>
-      </c>
-      <c r="WK1" s="1" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="WL1" s="1" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="WM1" s="1" t="inlineStr">
-        <is>
-          <t>flexibility</t>
-        </is>
-      </c>
-      <c r="WN1" s="1" t="inlineStr">
-        <is>
-          <t>have</t>
-        </is>
-      </c>
-      <c r="WO1" s="1" t="inlineStr">
-        <is>
-          <t>broad</t>
-        </is>
-      </c>
-      <c r="WP1" s="1" t="inlineStr">
-        <is>
-          <t>helping</t>
-        </is>
-      </c>
-      <c r="WQ1" s="1" t="inlineStr">
-        <is>
-          <t>while</t>
-        </is>
-      </c>
-      <c r="WR1" s="1" t="inlineStr">
-        <is>
-          <t>beneficial</t>
-        </is>
-      </c>
-      <c r="WS1" s="1" t="inlineStr">
-        <is>
-          <t>classified</t>
-        </is>
-      </c>
-      <c r="WT1" s="1" t="inlineStr">
+      <c r="YM1" s="1" t="inlineStr">
         <is>
           <t>weaknesses</t>
         </is>
       </c>
-      <c r="WU1" s="1" t="inlineStr">
-        <is>
-          <t>mechanical</t>
-        </is>
-      </c>
-      <c r="WV1" s="1" t="inlineStr">
-        <is>
-          <t>informed</t>
-        </is>
-      </c>
-      <c r="WW1" s="1" t="inlineStr">
-        <is>
-          <t>multiple</t>
-        </is>
-      </c>
-      <c r="WX1" s="1" t="inlineStr">
-        <is>
-          <t>allowing</t>
-        </is>
-      </c>
-      <c r="WY1" s="1" t="inlineStr">
-        <is>
-          <t>field-test</t>
-        </is>
-      </c>
-      <c r="WZ1" s="1" t="inlineStr">
-        <is>
-          <t>spatial</t>
-        </is>
-      </c>
-      <c r="XA1" s="1" t="inlineStr">
-        <is>
-          <t>favoring</t>
-        </is>
-      </c>
-      <c r="XB1" s="1" t="inlineStr">
-        <is>
-          <t>adapted</t>
-        </is>
-      </c>
-      <c r="XC1" s="1" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="XD1" s="1" t="inlineStr">
-        <is>
-          <t>effect</t>
-        </is>
-      </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>stress</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
-        <is>
-          <t>develop</t>
-        </is>
-      </c>
-      <c r="XG1" s="1" t="inlineStr">
-        <is>
-          <t>mixed-methods</t>
-        </is>
-      </c>
-      <c r="XH1" s="1" t="inlineStr">
-        <is>
-          <t>deeper</t>
-        </is>
-      </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>profile</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>ownership</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>covered</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
-        <is>
-          <t>although</t>
-        </is>
-      </c>
-      <c r="XM1" s="1" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="XN1" s="1" t="inlineStr">
-        <is>
-          <t>among</t>
-        </is>
-      </c>
-      <c r="XO1" s="1" t="inlineStr">
-        <is>
-          <t>nominations</t>
-        </is>
-      </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>social-emotionally</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
-        <is>
-          <t>profiles</t>
-        </is>
-      </c>
-      <c r="XR1" s="1" t="inlineStr">
-        <is>
-          <t>ranged</t>
-        </is>
-      </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>namely</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>several</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>naturalist</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>challenging</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>mainly</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>childhood</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>focused</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>possibilities</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>nomination</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>first-grade</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>brought</t>
-        </is>
-      </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>exist</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>novel</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>mind</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>often</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>poorer</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>recombinations</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>serve</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>task</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>types</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>terms</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>creative</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>appear</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>holding</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>equivalent</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>given</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>assess</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>lifting</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>gap</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>identifier</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>counterintuitive</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>alleviated</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>appreciable</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>attempts</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>dramatic</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
-        <is>
-          <t>burden</t>
-        </is>
-      </c>
-      <c r="YO1" s="1" t="inlineStr">
-        <is>
-          <t>past</t>
-        </is>
-      </c>
-      <c r="YP1" s="1" t="inlineStr">
-        <is>
-          <t>flexible</t>
-        </is>
-      </c>
-      <c r="YQ1" s="1" t="inlineStr">
-        <is>
-          <t>stage</t>
-        </is>
-      </c>
-      <c r="YR1" s="1" t="inlineStr">
-        <is>
-          <t>assess</t>
-        </is>
-      </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>witnessed</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>understand</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>ultimately</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>though</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>roles</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>reveal</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>explore</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>perspective</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>numerous</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>move</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>isolation</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>interviewed</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>homeschooled</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>exploratory</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>establishes</t>
-        </is>
-      </c>
       <c r="ZI1" s="1" t="inlineStr">
         <is>
-          <t>age/developmental</t>
+          <t>fluid</t>
         </is>
       </c>
       <c r="ZJ1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>indicating</t>
         </is>
       </c>
       <c r="ZK1" s="1" t="inlineStr">
         <is>
-          <t>decided</t>
+          <t>indicators</t>
         </is>
       </c>
       <c r="ZL1" s="1" t="inlineStr">
         <is>
-          <t>decide</t>
+          <t>documented</t>
         </is>
       </c>
       <c r="ZM1" s="1" t="inlineStr">
         <is>
-          <t>decade</t>
+          <t>selection</t>
         </is>
       </c>
       <c r="ZN1" s="1" t="inlineStr">
         <is>
-          <t>appear</t>
+          <t>thirds</t>
         </is>
       </c>
       <c r="ZO1" s="1" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>setting</t>
         </is>
       </c>
       <c r="ZP1" s="1" t="inlineStr">
         <is>
-          <t>bore</t>
+          <t>type</t>
         </is>
       </c>
       <c r="ZQ1" s="1" t="inlineStr">
         <is>
-          <t>poorer</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="ZR1" s="1" t="inlineStr">
         <is>
-          <t>lifting</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="ZS1" s="1" t="inlineStr">
         <is>
-          <t>indicators</t>
+          <t>specialized</t>
         </is>
       </c>
       <c r="ZT1" s="1" t="inlineStr">
         <is>
-          <t>indicating</t>
+          <t>university</t>
         </is>
       </c>
       <c r="ZU1" s="1" t="inlineStr">
         <is>
-          <t>identifier</t>
+          <t>small-group</t>
         </is>
       </c>
       <c r="ZV1" s="1" t="inlineStr">
         <is>
-          <t>holding</t>
+          <t>settings</t>
         </is>
       </c>
       <c r="ZW1" s="1" t="inlineStr">
         <is>
-          <t>mind</t>
+          <t>university-based</t>
         </is>
       </c>
       <c r="ZX1" s="1" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>usually</t>
         </is>
       </c>
       <c r="ZY1" s="1" t="inlineStr">
         <is>
-          <t>fluid</t>
+          <t>testing</t>
         </is>
       </c>
       <c r="ZZ1" s="1" t="inlineStr">
         <is>
-          <t>equivalent</t>
+          <t>robust</t>
         </is>
       </c>
       <c r="AAA1" s="1" t="inlineStr">
         <is>
-          <t>novel</t>
+          <t>school-based</t>
         </is>
       </c>
       <c r="AAB1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>regard</t>
         </is>
       </c>
       <c r="AAC1" s="1" t="inlineStr">
         <is>
-          <t>often</t>
+          <t>essence</t>
         </is>
       </c>
       <c r="AAD1" s="1" t="inlineStr">
         <is>
-          <t>documented</t>
+          <t>established</t>
         </is>
       </c>
       <c r="AAE1" s="1" t="inlineStr">
         <is>
-          <t>recombinations</t>
+          <t>garnered</t>
         </is>
       </c>
       <c r="AAF1" s="1" t="inlineStr">
         <is>
-          <t>either</t>
+          <t>greatest</t>
         </is>
       </c>
       <c r="AAG1" s="1" t="inlineStr">
         <is>
-          <t>serve</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="AAH1" s="1" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>material</t>
         </is>
       </c>
       <c r="AAI1" s="1" t="inlineStr">
         <is>
-          <t>counterintuitive</t>
+          <t>nearly</t>
         </is>
       </c>
       <c r="AAJ1" s="1" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>occurs</t>
         </is>
       </c>
       <c r="AAK1" s="1" t="inlineStr">
         <is>
-          <t>types</t>
+          <t>offered</t>
         </is>
       </c>
       <c r="AAL1" s="1" t="inlineStr">
         <is>
-          <t>terms</t>
+          <t>participation</t>
         </is>
       </c>
       <c r="AAM1" s="1" t="inlineStr">
         <is>
-          <t>established</t>
+          <t>revisions</t>
         </is>
       </c>
       <c r="AAN1" s="1" t="inlineStr">
@@ -4012,1527 +4012,1337 @@
       </c>
       <c r="AAO1" s="1" t="inlineStr">
         <is>
+          <t>receive</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
+        <is>
+          <t>varied</t>
+        </is>
+      </c>
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>variations</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>similar</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>via</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>criterion-related</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>low-income</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>indicate</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>existed</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>evaluated</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>equivalency</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>elementary-aged</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>contribute</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>scored</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>approximately</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>added</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>across-group</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>1,700</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>made</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>whereas</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>demonstrate</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>1,149</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>11.3</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>designed</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>90th</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>differentiate</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>membership</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>examined</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>magnet</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>particular</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>ranges</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>11.6</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>ways</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>according</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>addressing</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>academically</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>1970s</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>accelerative</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>5,844</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>above-level</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
           <t>centers</t>
         </is>
       </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>particular</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>strong</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>specialized</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>designed</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>small-group</t>
-        </is>
-      </c>
-      <c r="AAV1" s="1" t="inlineStr">
-        <is>
-          <t>settings</t>
-        </is>
-      </c>
-      <c r="AAW1" s="1" t="inlineStr">
-        <is>
-          <t>setting</t>
-        </is>
-      </c>
-      <c r="AAX1" s="1" t="inlineStr">
-        <is>
-          <t>school-based</t>
-        </is>
-      </c>
-      <c r="AAY1" s="1" t="inlineStr">
-        <is>
-          <t>robust</t>
-        </is>
-      </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>receive</t>
-        </is>
-      </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>participation</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>garnered</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>offered</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>occurs</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>nearly</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>thirds</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>more</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>material</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
-        <is>
-          <t>membership</t>
-        </is>
-      </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>indicate</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>low-income</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>highly</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>made</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>essence</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>greatest</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>added</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>approximately</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>evaluated</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrate</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>differentiate</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>enable</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>examined</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>magnet</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>ranges</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>scored</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>similar</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>equivalency</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>elementary-aged</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>criterion-related</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>contribute</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>across-group</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>existed</t>
-        </is>
-      </c>
       <c r="ACL1" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>cognitively</t>
         </is>
       </c>
       <c r="ACM1" s="1" t="inlineStr">
         <is>
-          <t>90th</t>
+          <t>consonant</t>
         </is>
       </c>
       <c r="ACN1" s="1" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>employing</t>
         </is>
       </c>
       <c r="ACO1" s="1" t="inlineStr">
         <is>
-          <t>1,700</t>
+          <t>behavior</t>
         </is>
       </c>
       <c r="ACP1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>percentages</t>
         </is>
       </c>
       <c r="ACQ1" s="1" t="inlineStr">
         <is>
-          <t>university-based</t>
+          <t>attended</t>
         </is>
       </c>
       <c r="ACR1" s="1" t="inlineStr">
         <is>
-          <t>usually</t>
+          <t>examinations</t>
         </is>
       </c>
       <c r="ACS1" s="1" t="inlineStr">
         <is>
-          <t>variations</t>
+          <t>ages</t>
         </is>
       </c>
       <c r="ACT1" s="1" t="inlineStr">
         <is>
-          <t>addressing</t>
+          <t>fathers</t>
         </is>
       </c>
       <c r="ACU1" s="1" t="inlineStr">
         <is>
-          <t>varied</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="ACV1" s="1" t="inlineStr">
         <is>
-          <t>via</t>
+          <t>extent</t>
         </is>
       </c>
       <c r="ACW1" s="1" t="inlineStr">
         <is>
-          <t>ways</t>
+          <t>9-17</t>
         </is>
       </c>
       <c r="ACX1" s="1" t="inlineStr">
         <is>
-          <t>whereas</t>
+          <t>332</t>
         </is>
       </c>
       <c r="ACY1" s="1" t="inlineStr">
         <is>
-          <t>1,149</t>
+          <t>probe</t>
         </is>
       </c>
       <c r="ACZ1" s="1" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>84th</t>
         </is>
       </c>
       <c r="ADA1" s="1" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="ADB1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>rather</t>
         </is>
       </c>
       <c r="ADC1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="ADD1" s="1" t="inlineStr">
         <is>
-          <t>rating</t>
+          <t>stringent</t>
         </is>
       </c>
       <c r="ADE1" s="1" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>measures</t>
         </is>
       </c>
       <c r="ADF1" s="1" t="inlineStr">
         <is>
-          <t>1970s</t>
+          <t>parental</t>
         </is>
       </c>
       <c r="ADG1" s="1" t="inlineStr">
         <is>
-          <t>revisions</t>
+          <t>administered</t>
         </is>
       </c>
       <c r="ADH1" s="1" t="inlineStr">
         <is>
-          <t>accelerative</t>
+          <t>moderated</t>
         </is>
       </c>
       <c r="ADI1" s="1" t="inlineStr">
         <is>
-          <t>regard</t>
+          <t>disability</t>
         </is>
       </c>
       <c r="ADJ1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>style</t>
         </is>
       </c>
       <c r="ADK1" s="1" t="inlineStr">
         <is>
-          <t>above-level</t>
+          <t>tend</t>
         </is>
       </c>
       <c r="ADL1" s="1" t="inlineStr">
         <is>
-          <t>5,844</t>
+          <t>warm</t>
         </is>
       </c>
       <c r="ADM1" s="1" t="inlineStr">
         <is>
-          <t>selection</t>
+          <t>show</t>
         </is>
       </c>
       <c r="ADN1" s="1" t="inlineStr">
         <is>
-          <t>according</t>
+          <t>following</t>
         </is>
       </c>
       <c r="ADO1" s="1" t="inlineStr">
         <is>
-          <t>gap</t>
+          <t>responsive</t>
         </is>
       </c>
       <c r="ADP1" s="1" t="inlineStr">
         <is>
+          <t>residential</t>
+        </is>
+      </c>
+      <c r="ADQ1" s="1" t="inlineStr">
+        <is>
+          <t>relationships</t>
+        </is>
+      </c>
+      <c r="ADR1" s="1" t="inlineStr">
+        <is>
+          <t>reasonable</t>
+        </is>
+      </c>
+      <c r="ADS1" s="1" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="ADT1" s="1" t="inlineStr">
+        <is>
+          <t>warmth</t>
+        </is>
+      </c>
+      <c r="ADU1" s="1" t="inlineStr">
+        <is>
+          <t>promotes</t>
+        </is>
+      </c>
+      <c r="ADV1" s="1" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="ADW1" s="1" t="inlineStr">
+        <is>
+          <t>tentatively</t>
+        </is>
+      </c>
+      <c r="ADX1" s="1" t="inlineStr">
+        <is>
+          <t>notion</t>
+        </is>
+      </c>
+      <c r="ADY1" s="1" t="inlineStr">
+        <is>
+          <t>nonidentified</t>
+        </is>
+      </c>
+      <c r="ADZ1" s="1" t="inlineStr">
+        <is>
+          <t>deficits</t>
+        </is>
+      </c>
+      <c r="AEA1" s="1" t="inlineStr">
+        <is>
+          <t>takes</t>
+        </is>
+      </c>
+      <c r="AEB1" s="1" t="inlineStr">
+        <is>
+          <t>curriculum-based</t>
+        </is>
+      </c>
+      <c r="AEC1" s="1" t="inlineStr">
+        <is>
+          <t>decline</t>
+        </is>
+      </c>
+      <c r="AED1" s="1" t="inlineStr">
+        <is>
+          <t>conservative</t>
+        </is>
+      </c>
+      <c r="AEE1" s="1" t="inlineStr">
+        <is>
+          <t>1,242</t>
+        </is>
+      </c>
+      <c r="AEF1" s="1" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="AEG1" s="1" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="AEH1" s="1" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="AEI1" s="1" t="inlineStr">
+        <is>
+          <t>values</t>
+        </is>
+      </c>
+      <c r="AEJ1" s="1" t="inlineStr">
+        <is>
           <t>4.83</t>
         </is>
       </c>
-      <c r="ADQ1" s="1" t="inlineStr">
-        <is>
-          <t>promotes</t>
-        </is>
-      </c>
-      <c r="ADR1" s="1" t="inlineStr">
-        <is>
-          <t>deficits</t>
-        </is>
-      </c>
-      <c r="ADS1" s="1" t="inlineStr">
-        <is>
-          <t>administered</t>
-        </is>
-      </c>
-      <c r="ADT1" s="1" t="inlineStr">
-        <is>
-          <t>relationships</t>
-        </is>
-      </c>
-      <c r="ADU1" s="1" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="ADV1" s="1" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="ADW1" s="1" t="inlineStr">
-        <is>
-          <t>reasonable</t>
-        </is>
-      </c>
-      <c r="ADX1" s="1" t="inlineStr">
-        <is>
-          <t>curriculum-based</t>
-        </is>
-      </c>
-      <c r="ADY1" s="1" t="inlineStr">
-        <is>
-          <t>residential</t>
-        </is>
-      </c>
-      <c r="ADZ1" s="1" t="inlineStr">
-        <is>
-          <t>responsive</t>
-        </is>
-      </c>
-      <c r="AEA1" s="1" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="AEB1" s="1" t="inlineStr">
-        <is>
-          <t>show</t>
-        </is>
-      </c>
-      <c r="AEC1" s="1" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="AED1" s="1" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="AEE1" s="1" t="inlineStr">
-        <is>
-          <t>parental</t>
-        </is>
-      </c>
-      <c r="AEF1" s="1" t="inlineStr">
-        <is>
-          <t>extent</t>
-        </is>
-      </c>
-      <c r="AEG1" s="1" t="inlineStr">
-        <is>
-          <t>notion</t>
-        </is>
-      </c>
-      <c r="AEH1" s="1" t="inlineStr">
-        <is>
-          <t>nonidentified</t>
-        </is>
-      </c>
-      <c r="AEI1" s="1" t="inlineStr">
-        <is>
-          <t>consonant</t>
-        </is>
-      </c>
-      <c r="AEJ1" s="1" t="inlineStr">
-        <is>
-          <t>attended</t>
-        </is>
-      </c>
       <c r="AEK1" s="1" t="inlineStr">
         <is>
-          <t>ages</t>
+          <t>third-grade</t>
         </is>
       </c>
       <c r="AEL1" s="1" t="inlineStr">
         <is>
-          <t>adjustment</t>
+          <t>suggesting</t>
         </is>
       </c>
       <c r="AEM1" s="1" t="inlineStr">
         <is>
-          <t>9-17</t>
+          <t>renewal</t>
         </is>
       </c>
       <c r="AEN1" s="1" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>meaningful</t>
         </is>
       </c>
       <c r="AEO1" s="1" t="inlineStr">
         <is>
-          <t>stringent</t>
+          <t>morphological</t>
         </is>
       </c>
       <c r="AEP1" s="1" t="inlineStr">
         <is>
-          <t>employing</t>
+          <t>voices</t>
         </is>
       </c>
       <c r="AEQ1" s="1" t="inlineStr">
         <is>
-          <t>examinations</t>
+          <t>162</t>
         </is>
       </c>
       <c r="AER1" s="1" t="inlineStr">
         <is>
-          <t>84th</t>
+          <t>way</t>
         </is>
       </c>
       <c r="AES1" s="1" t="inlineStr">
         <is>
-          <t>measures</t>
+          <t>20s</t>
         </is>
       </c>
       <c r="AET1" s="1" t="inlineStr">
         <is>
-          <t>decline</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="AEU1" s="1" t="inlineStr">
         <is>
-          <t>values</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AEV1" s="1" t="inlineStr">
         <is>
-          <t>fathers</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="AEW1" s="1" t="inlineStr">
         <is>
-          <t>moderated</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="AEX1" s="1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>attend</t>
         </is>
       </c>
       <c r="AEY1" s="1" t="inlineStr">
         <is>
-          <t>cognitively</t>
+          <t>careers</t>
         </is>
       </c>
       <c r="AEZ1" s="1" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>lives</t>
         </is>
       </c>
       <c r="AFA1" s="1" t="inlineStr">
         <is>
-          <t>1,242</t>
+          <t>changed</t>
         </is>
       </c>
       <c r="AFB1" s="1" t="inlineStr">
         <is>
-          <t>style</t>
+          <t>cited</t>
         </is>
       </c>
       <c r="AFC1" s="1" t="inlineStr">
         <is>
-          <t>following</t>
+          <t>problem-solving</t>
         </is>
       </c>
       <c r="AFD1" s="1" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>cohorts</t>
         </is>
       </c>
       <c r="AFE1" s="1" t="inlineStr">
         <is>
-          <t>rather</t>
+          <t>midwest</t>
         </is>
       </c>
       <c r="AFF1" s="1" t="inlineStr">
         <is>
-          <t>probe</t>
+          <t>motivating</t>
         </is>
       </c>
       <c r="AFG1" s="1" t="inlineStr">
         <is>
-          <t>conservative</t>
+          <t>comparisons</t>
         </is>
       </c>
       <c r="AFH1" s="1" t="inlineStr">
         <is>
-          <t>disability</t>
+          <t>computer</t>
         </is>
       </c>
       <c r="AFI1" s="1" t="inlineStr">
         <is>
-          <t>percentages</t>
+          <t>contacted</t>
         </is>
       </c>
       <c r="AFJ1" s="1" t="inlineStr">
         <is>
-          <t>tentatively</t>
+          <t>current</t>
         </is>
       </c>
       <c r="AFK1" s="1" t="inlineStr">
         <is>
-          <t>takes</t>
+          <t>markers</t>
         </is>
       </c>
       <c r="AFL1" s="1" t="inlineStr">
         <is>
-          <t>only</t>
+          <t>urban</t>
         </is>
       </c>
       <c r="AFM1" s="1" t="inlineStr">
         <is>
-          <t>warmth</t>
+          <t>respondents</t>
         </is>
       </c>
       <c r="AFN1" s="1" t="inlineStr">
         <is>
-          <t>warm</t>
+          <t>eyes</t>
         </is>
       </c>
       <c r="AFO1" s="1" t="inlineStr">
         <is>
-          <t>tend</t>
+          <t>retention</t>
         </is>
       </c>
       <c r="AFP1" s="1" t="inlineStr">
         <is>
-          <t>third-grade</t>
+          <t>rural</t>
         </is>
       </c>
       <c r="AFQ1" s="1" t="inlineStr">
         <is>
-          <t>suggesting</t>
+          <t>enhances</t>
         </is>
       </c>
       <c r="AFR1" s="1" t="inlineStr">
         <is>
-          <t>behavior</t>
+          <t>emphasized</t>
         </is>
       </c>
       <c r="AFS1" s="1" t="inlineStr">
         <is>
-          <t>renewal</t>
+          <t>district</t>
         </is>
       </c>
       <c r="AFT1" s="1" t="inlineStr">
         <is>
-          <t>retention</t>
+          <t>develops</t>
         </is>
       </c>
       <c r="AFU1" s="1" t="inlineStr">
         <is>
-          <t>respondents</t>
+          <t>developmental</t>
         </is>
       </c>
       <c r="AFV1" s="1" t="inlineStr">
         <is>
-          <t>30s</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="AFW1" s="1" t="inlineStr">
         <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="AFX1" s="1" t="inlineStr">
+        <is>
+          <t>self-directed</t>
+        </is>
+      </c>
+      <c r="AFY1" s="1" t="inlineStr">
+        <is>
+          <t>socializing</t>
+        </is>
+      </c>
+      <c r="AFZ1" s="1" t="inlineStr">
+        <is>
+          <t>tool</t>
+        </is>
+      </c>
+      <c r="AGA1" s="1" t="inlineStr">
+        <is>
+          <t>structural</t>
+        </is>
+      </c>
+      <c r="AGB1" s="1" t="inlineStr">
+        <is>
+          <t>consisting</t>
+        </is>
+      </c>
+      <c r="AGC1" s="1" t="inlineStr">
+        <is>
+          <t>substantiated</t>
+        </is>
+      </c>
+      <c r="AGD1" s="1" t="inlineStr">
+        <is>
           <t>putting</t>
         </is>
       </c>
-      <c r="AFX1" s="1" t="inlineStr">
-        <is>
-          <t>problem-solving</t>
-        </is>
-      </c>
-      <c r="AFY1" s="1" t="inlineStr">
+      <c r="AGE1" s="1" t="inlineStr">
+        <is>
+          <t>allow</t>
+        </is>
+      </c>
+      <c r="AGF1" s="1" t="inlineStr">
+        <is>
+          <t>suburban</t>
+        </is>
+      </c>
+      <c r="AGG1" s="1" t="inlineStr">
         <is>
           <t>open-ended</t>
         </is>
       </c>
-      <c r="AFZ1" s="1" t="inlineStr">
-        <is>
-          <t>rural</t>
-        </is>
-      </c>
-      <c r="AGA1" s="1" t="inlineStr">
-        <is>
-          <t>urban</t>
-        </is>
-      </c>
-      <c r="AGB1" s="1" t="inlineStr">
-        <is>
-          <t>20s</t>
-        </is>
-      </c>
-      <c r="AGC1" s="1" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="AGD1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AGE1" s="1" t="inlineStr">
-        <is>
-          <t>way</t>
-        </is>
-      </c>
-      <c r="AGF1" s="1" t="inlineStr">
-        <is>
-          <t>self-directed</t>
-        </is>
-      </c>
-      <c r="AGG1" s="1" t="inlineStr">
-        <is>
-          <t>socializing</t>
-        </is>
-      </c>
       <c r="AGH1" s="1" t="inlineStr">
         <is>
-          <t>structural</t>
+          <t>teamwork</t>
         </is>
       </c>
       <c r="AGI1" s="1" t="inlineStr">
         <is>
-          <t>substantiated</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="AGJ1" s="1" t="inlineStr">
         <is>
-          <t>suburban</t>
+          <t>monitor</t>
         </is>
       </c>
       <c r="AGK1" s="1" t="inlineStr">
         <is>
-          <t>voices</t>
+          <t>may</t>
         </is>
       </c>
       <c r="AGL1" s="1" t="inlineStr">
         <is>
+          <t>factors</t>
+        </is>
+      </c>
+      <c r="AGM1" s="1" t="inlineStr">
+        <is>
+          <t>undergraduates</t>
+        </is>
+      </c>
+      <c r="AGN1" s="1" t="inlineStr">
+        <is>
+          <t>rationale</t>
+        </is>
+      </c>
+      <c r="AGO1" s="1" t="inlineStr">
+        <is>
+          <t>school-age</t>
+        </is>
+      </c>
+      <c r="AGP1" s="1" t="inlineStr">
+        <is>
+          <t>occupations</t>
+        </is>
+      </c>
+      <c r="AGQ1" s="1" t="inlineStr">
+        <is>
+          <t>occupational</t>
+        </is>
+      </c>
+      <c r="AGR1" s="1" t="inlineStr">
+        <is>
+          <t>sets</t>
+        </is>
+      </c>
+      <c r="AGS1" s="1" t="inlineStr">
+        <is>
+          <t>situated</t>
+        </is>
+      </c>
+      <c r="AGT1" s="1" t="inlineStr">
+        <is>
+          <t>nuanced</t>
+        </is>
+      </c>
+      <c r="AGU1" s="1" t="inlineStr">
+        <is>
+          <t>needing</t>
+        </is>
+      </c>
+      <c r="AGV1" s="1" t="inlineStr">
+        <is>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="AGW1" s="1" t="inlineStr">
+        <is>
+          <t>storage</t>
+        </is>
+      </c>
+      <c r="AGX1" s="1" t="inlineStr">
+        <is>
+          <t>evidence-based</t>
+        </is>
+      </c>
+      <c r="AGY1" s="1" t="inlineStr">
+        <is>
+          <t>longer</t>
+        </is>
+      </c>
+      <c r="AGZ1" s="1" t="inlineStr">
+        <is>
+          <t>leaving</t>
+        </is>
+      </c>
+      <c r="AHA1" s="1" t="inlineStr">
+        <is>
+          <t>engaging</t>
+        </is>
+      </c>
+      <c r="AHB1" s="1" t="inlineStr">
+        <is>
+          <t>-2/3</t>
+        </is>
+      </c>
+      <c r="AHC1" s="1" t="inlineStr">
+        <is>
+          <t>lack</t>
+        </is>
+      </c>
+      <c r="AHD1" s="1" t="inlineStr">
+        <is>
+          <t>interest</t>
+        </is>
+      </c>
+      <c r="AHE1" s="1" t="inlineStr">
+        <is>
+          <t>hours</t>
+        </is>
+      </c>
+      <c r="AHF1" s="1" t="inlineStr">
+        <is>
+          <t>finalists</t>
+        </is>
+      </c>
+      <c r="AHG1" s="1" t="inlineStr">
+        <is>
+          <t>supervisory</t>
+        </is>
+      </c>
+      <c r="AHH1" s="1" t="inlineStr">
+        <is>
+          <t>supporting</t>
+        </is>
+      </c>
+      <c r="AHI1" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AHJ1" s="1" t="inlineStr">
+        <is>
+          <t>switch</t>
+        </is>
+      </c>
+      <c r="AHK1" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AHL1" s="1" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+      <c r="AHM1" s="1" t="inlineStr">
+        <is>
+          <t>sustain</t>
+        </is>
+      </c>
+      <c r="AHN1" s="1" t="inlineStr">
+        <is>
+          <t>females</t>
+        </is>
+      </c>
+      <c r="AHO1" s="1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AHP1" s="1" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AHQ1" s="1" t="inlineStr">
+        <is>
+          <t>decoding/spelling</t>
+        </is>
+      </c>
+      <c r="AHR1" s="1" t="inlineStr">
+        <is>
+          <t>genetically</t>
+        </is>
+      </c>
+      <c r="AHS1" s="1" t="inlineStr">
+        <is>
+          <t>older</t>
+        </is>
+      </c>
+      <c r="AHT1" s="1" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+      <c r="AHU1" s="1" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="AHV1" s="1" t="inlineStr">
+        <is>
+          <t>multigenerational</t>
+        </is>
+      </c>
+      <c r="AHW1" s="1" t="inlineStr">
+        <is>
+          <t>word-form</t>
+        </is>
+      </c>
+      <c r="AHX1" s="1" t="inlineStr">
+        <is>
+          <t>verbally</t>
+        </is>
+      </c>
+      <c r="AHY1" s="1" t="inlineStr">
+        <is>
+          <t>tested</t>
+        </is>
+      </c>
+      <c r="AHZ1" s="1" t="inlineStr">
+        <is>
+          <t>broader</t>
+        </is>
+      </c>
+      <c r="AIA1" s="1" t="inlineStr">
+        <is>
+          <t>naming</t>
+        </is>
+      </c>
+      <c r="AIB1" s="1" t="inlineStr">
+        <is>
+          <t>syntactic</t>
+        </is>
+      </c>
+      <c r="AIC1" s="1" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="AID1" s="1" t="inlineStr">
+        <is>
+          <t>suggested</t>
+        </is>
+      </c>
+      <c r="AIE1" s="1" t="inlineStr">
+        <is>
+          <t>outperformed</t>
+        </is>
+      </c>
+      <c r="AIF1" s="1" t="inlineStr">
+        <is>
           <t>lesson</t>
         </is>
       </c>
-      <c r="AGM1" s="1" t="inlineStr">
-        <is>
-          <t>teamwork</t>
-        </is>
-      </c>
-      <c r="AGN1" s="1" t="inlineStr">
-        <is>
-          <t>tool</t>
-        </is>
-      </c>
-      <c r="AGO1" s="1" t="inlineStr">
-        <is>
-          <t>cohorts</t>
-        </is>
-      </c>
-      <c r="AGP1" s="1" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="AGQ1" s="1" t="inlineStr">
+      <c r="AIG1" s="1" t="inlineStr">
+        <is>
+          <t>kinds</t>
+        </is>
+      </c>
+      <c r="AIH1" s="1" t="inlineStr">
+        <is>
+          <t>semifinalists</t>
+        </is>
+      </c>
+      <c r="AII1" s="1" t="inlineStr">
+        <is>
+          <t>self-efficacy</t>
+        </is>
+      </c>
+      <c r="AIJ1" s="1" t="inlineStr">
         <is>
           <t>selected</t>
         </is>
       </c>
-      <c r="AGR1" s="1" t="inlineStr">
-        <is>
-          <t>occupations</t>
-        </is>
-      </c>
-      <c r="AGS1" s="1" t="inlineStr">
-        <is>
-          <t>older</t>
-        </is>
-      </c>
-      <c r="AGT1" s="1" t="inlineStr">
-        <is>
-          <t>others</t>
-        </is>
-      </c>
-      <c r="AGU1" s="1" t="inlineStr">
+      <c r="AIK1" s="1" t="inlineStr">
+        <is>
+          <t>hypotheses</t>
+        </is>
+      </c>
+      <c r="AIL1" s="1" t="inlineStr">
+        <is>
+          <t>grades</t>
+        </is>
+      </c>
+      <c r="AIM1" s="1" t="inlineStr">
+        <is>
+          <t>responsibilities</t>
+        </is>
+      </c>
+      <c r="AIN1" s="1" t="inlineStr">
+        <is>
+          <t>processing</t>
+        </is>
+      </c>
+      <c r="AIO1" s="1" t="inlineStr">
+        <is>
+          <t>recently</t>
+        </is>
+      </c>
+      <c r="AIP1" s="1" t="inlineStr">
+        <is>
+          <t>qualified</t>
+        </is>
+      </c>
+      <c r="AIQ1" s="1" t="inlineStr">
+        <is>
+          <t>recalled</t>
+        </is>
+      </c>
+      <c r="AIR1" s="1" t="inlineStr">
+        <is>
+          <t>genetics</t>
+        </is>
+      </c>
+      <c r="AIS1" s="1" t="inlineStr">
+        <is>
+          <t>proportionally</t>
+        </is>
+      </c>
+      <c r="AIT1" s="1" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
+      <c r="AIU1" s="1" t="inlineStr">
+        <is>
+          <t>prestigious</t>
+        </is>
+      </c>
+      <c r="AIV1" s="1" t="inlineStr">
+        <is>
+          <t>picture</t>
+        </is>
+      </c>
+      <c r="AIW1" s="1" t="inlineStr">
+        <is>
+          <t>employed</t>
+        </is>
+      </c>
+      <c r="AIX1" s="1" t="inlineStr">
         <is>
           <t>physics/astronomy</t>
         </is>
       </c>
-      <c r="AGV1" s="1" t="inlineStr">
-        <is>
-          <t>picture</t>
-        </is>
-      </c>
-      <c r="AGW1" s="1" t="inlineStr">
-        <is>
-          <t>prestigious</t>
-        </is>
-      </c>
-      <c r="AGX1" s="1" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
-      <c r="AGY1" s="1" t="inlineStr">
-        <is>
-          <t>proportionally</t>
-        </is>
-      </c>
-      <c r="AGZ1" s="1" t="inlineStr">
-        <is>
-          <t>recalled</t>
-        </is>
-      </c>
-      <c r="AHA1" s="1" t="inlineStr">
-        <is>
-          <t>recently</t>
-        </is>
-      </c>
-      <c r="AHB1" s="1" t="inlineStr">
-        <is>
-          <t>responsibilities</t>
-        </is>
-      </c>
-      <c r="AHC1" s="1" t="inlineStr">
-        <is>
-          <t>self-efficacy</t>
-        </is>
-      </c>
-      <c r="AHD1" s="1" t="inlineStr">
-        <is>
-          <t>nuanced</t>
-        </is>
-      </c>
-      <c r="AHE1" s="1" t="inlineStr">
-        <is>
-          <t>semifinalists</t>
-        </is>
-      </c>
-      <c r="AHF1" s="1" t="inlineStr">
-        <is>
-          <t>suggested</t>
-        </is>
-      </c>
-      <c r="AHG1" s="1" t="inlineStr">
-        <is>
-          <t>technology</t>
-        </is>
-      </c>
-      <c r="AHH1" s="1" t="inlineStr">
-        <is>
-          <t>undergraduates</t>
-        </is>
-      </c>
-      <c r="AHI1" s="1" t="inlineStr">
-        <is>
-          <t>hypotheses</t>
-        </is>
-      </c>
-      <c r="AHJ1" s="1" t="inlineStr">
-        <is>
-          <t>grades</t>
-        </is>
-      </c>
-      <c r="AHK1" s="1" t="inlineStr">
-        <is>
-          <t>genetics</t>
-        </is>
-      </c>
-      <c r="AHL1" s="1" t="inlineStr">
-        <is>
-          <t>genetically</t>
-        </is>
-      </c>
-      <c r="AHM1" s="1" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AHN1" s="1" t="inlineStr">
-        <is>
-          <t>evidence-based</t>
-        </is>
-      </c>
-      <c r="AHO1" s="1" t="inlineStr">
-        <is>
-          <t>engaging</t>
-        </is>
-      </c>
-      <c r="AHP1" s="1" t="inlineStr">
-        <is>
-          <t>occupational</t>
-        </is>
-      </c>
-      <c r="AHQ1" s="1" t="inlineStr">
-        <is>
-          <t>needing</t>
-        </is>
-      </c>
-      <c r="AHR1" s="1" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="AHS1" s="1" t="inlineStr">
-        <is>
-          <t>employed</t>
-        </is>
-      </c>
-      <c r="AHT1" s="1" t="inlineStr">
-        <is>
-          <t>attend</t>
-        </is>
-      </c>
-      <c r="AHU1" s="1" t="inlineStr">
-        <is>
-          <t>careers</t>
-        </is>
-      </c>
-      <c r="AHV1" s="1" t="inlineStr">
-        <is>
-          <t>changed</t>
-        </is>
-      </c>
-      <c r="AHW1" s="1" t="inlineStr">
-        <is>
-          <t>cited</t>
-        </is>
-      </c>
-      <c r="AHX1" s="1" t="inlineStr">
-        <is>
-          <t>midwest</t>
-        </is>
-      </c>
-      <c r="AHY1" s="1" t="inlineStr">
-        <is>
-          <t>kinds</t>
-        </is>
-      </c>
-      <c r="AHZ1" s="1" t="inlineStr">
-        <is>
-          <t>comparisons</t>
-        </is>
-      </c>
-      <c r="AIA1" s="1" t="inlineStr">
-        <is>
-          <t>computer</t>
-        </is>
-      </c>
-      <c r="AIB1" s="1" t="inlineStr">
-        <is>
-          <t>contacted</t>
-        </is>
-      </c>
-      <c r="AIC1" s="1" t="inlineStr">
-        <is>
-          <t>current</t>
-        </is>
-      </c>
-      <c r="AID1" s="1" t="inlineStr">
+      <c r="AIY1" s="1" t="inlineStr">
         <is>
           <t>decades</t>
         </is>
       </c>
-      <c r="AIE1" s="1" t="inlineStr">
-        <is>
-          <t>2/3</t>
-        </is>
-      </c>
-      <c r="AIF1" s="1" t="inlineStr">
-        <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="AIG1" s="1" t="inlineStr">
-        <is>
-          <t>factors</t>
-        </is>
-      </c>
-      <c r="AIH1" s="1" t="inlineStr">
-        <is>
-          <t>females</t>
-        </is>
-      </c>
-      <c r="AII1" s="1" t="inlineStr">
-        <is>
-          <t>finalists</t>
-        </is>
-      </c>
-      <c r="AIJ1" s="1" t="inlineStr">
-        <is>
-          <t>has</t>
-        </is>
-      </c>
-      <c r="AIK1" s="1" t="inlineStr">
-        <is>
-          <t>hours</t>
-        </is>
-      </c>
-      <c r="AIL1" s="1" t="inlineStr">
-        <is>
-          <t>interest</t>
-        </is>
-      </c>
-      <c r="AIM1" s="1" t="inlineStr">
-        <is>
-          <t>lack</t>
-        </is>
-      </c>
-      <c r="AIN1" s="1" t="inlineStr">
-        <is>
-          <t>-2/3</t>
-        </is>
-      </c>
-      <c r="AIO1" s="1" t="inlineStr">
-        <is>
-          <t>leaving</t>
-        </is>
-      </c>
-      <c r="AIP1" s="1" t="inlineStr">
-        <is>
-          <t>longer</t>
-        </is>
-      </c>
-      <c r="AIQ1" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AIR1" s="1" t="inlineStr">
-        <is>
-          <t>motivating</t>
-        </is>
-      </c>
-      <c r="AIS1" s="1" t="inlineStr">
-        <is>
-          <t>storage</t>
-        </is>
-      </c>
-      <c r="AIT1" s="1" t="inlineStr">
-        <is>
-          <t>meaningful</t>
-        </is>
-      </c>
-      <c r="AIU1" s="1" t="inlineStr">
-        <is>
-          <t>switch</t>
-        </is>
-      </c>
-      <c r="AIV1" s="1" t="inlineStr">
-        <is>
-          <t>youth</t>
-        </is>
-      </c>
-      <c r="AIW1" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AIX1" s="1" t="inlineStr">
-        <is>
-          <t>naming</t>
-        </is>
-      </c>
-      <c r="AIY1" s="1" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
       <c r="AIZ1" s="1" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>smaller</t>
         </is>
       </c>
       <c r="AJA1" s="1" t="inlineStr">
         <is>
-          <t>outperformed</t>
+          <t>subgroup</t>
         </is>
       </c>
       <c r="AJB1" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>possible</t>
         </is>
       </c>
       <c r="AJC1" s="1" t="inlineStr">
         <is>
-          <t>lives</t>
+          <t>fourth</t>
         </is>
       </c>
       <c r="AJD1" s="1" t="inlineStr">
         <is>
-          <t>verbally</t>
+          <t>grade-wide</t>
         </is>
       </c>
       <c r="AJE1" s="1" t="inlineStr">
         <is>
-          <t>tested</t>
+          <t>hypothetical</t>
         </is>
       </c>
       <c r="AJF1" s="1" t="inlineStr">
         <is>
-          <t>syntactic</t>
+          <t>inclusion</t>
         </is>
       </c>
       <c r="AJG1" s="1" t="inlineStr">
         <is>
-          <t>sustain</t>
+          <t>kindergartners</t>
         </is>
       </c>
       <c r="AJH1" s="1" t="inlineStr">
         <is>
-          <t>morphological</t>
+          <t>larger</t>
         </is>
       </c>
       <c r="AJI1" s="1" t="inlineStr">
         <is>
-          <t>supporting</t>
+          <t>minorities</t>
         </is>
       </c>
       <c r="AJJ1" s="1" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="AJK1" s="1" t="inlineStr">
         <is>
-          <t>qualified</t>
+          <t>part</t>
         </is>
       </c>
       <c r="AJL1" s="1" t="inlineStr">
         <is>
-          <t>broader</t>
+          <t>predictive</t>
         </is>
       </c>
       <c r="AJM1" s="1" t="inlineStr">
         <is>
-          <t>rationale</t>
+          <t>fisher</t>
         </is>
       </c>
       <c r="AJN1" s="1" t="inlineStr">
         <is>
-          <t>supervisory</t>
+          <t>produced</t>
         </is>
       </c>
       <c r="AJO1" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>protocol</t>
         </is>
       </c>
       <c r="AJP1" s="1" t="inlineStr">
         <is>
-          <t>between</t>
+          <t>wisc-iv</t>
         </is>
       </c>
       <c r="AJQ1" s="1" t="inlineStr">
         <is>
-          <t>school-age</t>
+          <t>whites</t>
         </is>
       </c>
       <c r="AJR1" s="1" t="inlineStr">
         <is>
-          <t>sets</t>
+          <t>wechsler</t>
         </is>
       </c>
       <c r="AJS1" s="1" t="inlineStr">
         <is>
-          <t>situated</t>
+          <t>versus</t>
         </is>
       </c>
       <c r="AJT1" s="1" t="inlineStr">
         <is>
-          <t>multigenerational</t>
+          <t>underrepresented</t>
         </is>
       </c>
       <c r="AJU1" s="1" t="inlineStr">
         <is>
-          <t>word-form</t>
+          <t>rates</t>
         </is>
       </c>
       <c r="AJV1" s="1" t="inlineStr">
         <is>
-          <t>monitor</t>
+          <t>slightly</t>
         </is>
       </c>
       <c r="AJW1" s="1" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>follow-up</t>
         </is>
       </c>
       <c r="AJX1" s="1" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>figural</t>
         </is>
       </c>
       <c r="AJY1" s="1" t="inlineStr">
         <is>
-          <t>eyes</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="AJZ1" s="1" t="inlineStr">
         <is>
-          <t>enhances</t>
+          <t>asians</t>
         </is>
       </c>
       <c r="AKA1" s="1" t="inlineStr">
         <is>
-          <t>emphasized</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="AKB1" s="1" t="inlineStr">
         <is>
-          <t>district</t>
+          <t>4,038</t>
         </is>
       </c>
       <c r="AKC1" s="1" t="inlineStr">
         <is>
-          <t>develops</t>
+          <t>5,833</t>
         </is>
       </c>
       <c r="AKD1" s="1" t="inlineStr">
         <is>
-          <t>developmental</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="AKE1" s="1" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>address</t>
         </is>
       </c>
       <c r="AKF1" s="1" t="inlineStr">
         <is>
-          <t>consisting</t>
+          <t>adjustments</t>
         </is>
       </c>
       <c r="AKG1" s="1" t="inlineStr">
         <is>
-          <t>allow</t>
+          <t>alone</t>
         </is>
       </c>
       <c r="AKH1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>appeared</t>
         </is>
       </c>
       <c r="AKI1" s="1" t="inlineStr">
         <is>
-          <t>markers</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="AKJ1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>assume</t>
         </is>
       </c>
       <c r="AKK1" s="1" t="inlineStr">
         <is>
-          <t>decoding/spelling</t>
+          <t>except</t>
         </is>
       </c>
       <c r="AKL1" s="1" t="inlineStr">
         <is>
-          <t>underrepresented</t>
+          <t>batteries</t>
         </is>
       </c>
       <c r="AKM1" s="1" t="inlineStr">
         <is>
-          <t>asian</t>
+          <t>black</t>
         </is>
       </c>
       <c r="AKN1" s="1" t="inlineStr">
         <is>
-          <t>slightly</t>
+          <t>blacks</t>
         </is>
       </c>
       <c r="AKO1" s="1" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>claims</t>
         </is>
       </c>
       <c r="AKP1" s="1" t="inlineStr">
         <is>
-          <t>appeared</t>
+          <t>considered</t>
         </is>
       </c>
       <c r="AKQ1" s="1" t="inlineStr">
         <is>
-          <t>alone</t>
+          <t>cuts</t>
         </is>
       </c>
       <c r="AKR1" s="1" t="inlineStr">
         <is>
-          <t>adjustments</t>
+          <t>english-language</t>
         </is>
       </c>
       <c r="AKS1" s="1" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="AKT1" s="1" t="inlineStr">
         <is>
-          <t>addition</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="AKU1" s="1" t="inlineStr">
         <is>
-          <t>rates</t>
-        </is>
-      </c>
-      <c r="AKV1" s="1" t="inlineStr">
-        <is>
-          <t>5,833</t>
-        </is>
-      </c>
-      <c r="AKW1" s="1" t="inlineStr">
-        <is>
-          <t>4,038</t>
-        </is>
-      </c>
-      <c r="AKX1" s="1" t="inlineStr">
-        <is>
-          <t>produced</t>
-        </is>
-      </c>
-      <c r="AKY1" s="1" t="inlineStr">
-        <is>
-          <t>predictive</t>
-        </is>
-      </c>
-      <c r="AKZ1" s="1" t="inlineStr">
-        <is>
-          <t>inclusion</t>
-        </is>
-      </c>
-      <c r="ALA1" s="1" t="inlineStr">
-        <is>
-          <t>wisc-iv</t>
-        </is>
-      </c>
-      <c r="ALB1" s="1" t="inlineStr">
-        <is>
-          <t>versus</t>
-        </is>
-      </c>
-      <c r="ALC1" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="ALD1" s="1" t="inlineStr">
-        <is>
-          <t>possible</t>
-        </is>
-      </c>
-      <c r="ALE1" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="ALF1" s="1" t="inlineStr">
-        <is>
           <t>screen</t>
-        </is>
-      </c>
-      <c r="ALG1" s="1" t="inlineStr">
-        <is>
-          <t>wechsler</t>
-        </is>
-      </c>
-      <c r="ALH1" s="1" t="inlineStr">
-        <is>
-          <t>hypothetical</t>
-        </is>
-      </c>
-      <c r="ALI1" s="1" t="inlineStr">
-        <is>
-          <t>larger</t>
-        </is>
-      </c>
-      <c r="ALJ1" s="1" t="inlineStr">
-        <is>
-          <t>grade-wide</t>
-        </is>
-      </c>
-      <c r="ALK1" s="1" t="inlineStr">
-        <is>
-          <t>assume</t>
-        </is>
-      </c>
-      <c r="ALL1" s="1" t="inlineStr">
-        <is>
-          <t>fourth</t>
-        </is>
-      </c>
-      <c r="ALM1" s="1" t="inlineStr">
-        <is>
-          <t>protocol</t>
-        </is>
-      </c>
-      <c r="ALN1" s="1" t="inlineStr">
-        <is>
-          <t>follow-up</t>
-        </is>
-      </c>
-      <c r="ALO1" s="1" t="inlineStr">
-        <is>
-          <t>kindergartners</t>
-        </is>
-      </c>
-      <c r="ALP1" s="1" t="inlineStr">
-        <is>
-          <t>fisher</t>
-        </is>
-      </c>
-      <c r="ALQ1" s="1" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="ALR1" s="1" t="inlineStr">
-        <is>
-          <t>figural</t>
-        </is>
-      </c>
-      <c r="ALS1" s="1" t="inlineStr">
-        <is>
-          <t>minorities</t>
-        </is>
-      </c>
-      <c r="ALT1" s="1" t="inlineStr">
-        <is>
-          <t>except</t>
-        </is>
-      </c>
-      <c r="ALU1" s="1" t="inlineStr">
-        <is>
-          <t>subgroup</t>
-        </is>
-      </c>
-      <c r="ALV1" s="1" t="inlineStr">
-        <is>
-          <t>smaller</t>
-        </is>
-      </c>
-      <c r="ALW1" s="1" t="inlineStr">
-        <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="ALX1" s="1" t="inlineStr">
-        <is>
-          <t>evaluation</t>
-        </is>
-      </c>
-      <c r="ALY1" s="1" t="inlineStr">
-        <is>
-          <t>english-language</t>
-        </is>
-      </c>
-      <c r="ALZ1" s="1" t="inlineStr">
-        <is>
-          <t>cuts</t>
-        </is>
-      </c>
-      <c r="AMA1" s="1" t="inlineStr">
-        <is>
-          <t>considered</t>
-        </is>
-      </c>
-      <c r="AMB1" s="1" t="inlineStr">
-        <is>
-          <t>whites</t>
-        </is>
-      </c>
-      <c r="AMC1" s="1" t="inlineStr">
-        <is>
-          <t>claims</t>
-        </is>
-      </c>
-      <c r="AMD1" s="1" t="inlineStr">
-        <is>
-          <t>blacks</t>
-        </is>
-      </c>
-      <c r="AME1" s="1" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
-      </c>
-      <c r="AMF1" s="1" t="inlineStr">
-        <is>
-          <t>batteries</t>
-        </is>
-      </c>
-      <c r="AMG1" s="1" t="inlineStr">
-        <is>
-          <t>asians</t>
         </is>
       </c>
     </row>
@@ -5544,16 +5354,16 @@
         <v>2013</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E2" t="n">
         <v>0.74</v>
       </c>
       <c r="F2" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="G2" t="n">
         <v>0.68</v>
@@ -5562,16 +5372,16 @@
         <v>0.64</v>
       </c>
       <c r="I2" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="J2" t="n">
         <v>0.58</v>
       </c>
       <c r="K2" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="L2" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="M2" t="n">
         <v>0.57</v>
@@ -5580,13 +5390,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="P2" t="n">
         <v>0.53</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="R2" t="n">
         <v>0.52</v>
@@ -5595,13 +5405,13 @@
         <v>0.51</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="U2" t="n">
         <v>0.48</v>
       </c>
       <c r="V2" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="W2" t="n">
         <v>0.47</v>
@@ -5616,7 +5426,7 @@
         <v>0.44</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="AB2" t="n">
         <v>0.43</v>
@@ -5649,7 +5459,7 @@
         <v>0.4</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="AM2" t="n">
         <v>0.39</v>
@@ -5667,13 +5477,13 @@
         <v>0.38</v>
       </c>
       <c r="AR2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AT2" t="n">
         <v>0.3700000000000001</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.37</v>
       </c>
       <c r="AU2" t="n">
         <v>0.37</v>
@@ -5691,10 +5501,10 @@
         <v>0.37</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="BB2" t="n">
         <v>0.36</v>
@@ -5703,13 +5513,13 @@
         <v>0.36</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="BG2" t="n">
         <v>0.35</v>
@@ -5718,13 +5528,13 @@
         <v>0.35</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="BL2" t="n">
         <v>0.34</v>
@@ -5736,13 +5546,13 @@
         <v>0.34</v>
       </c>
       <c r="BO2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="BQ2" t="n">
         <v>0.3300000000000001</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.33</v>
       </c>
       <c r="BR2" t="n">
         <v>0.33</v>
@@ -5754,13 +5564,13 @@
         <v>0.33</v>
       </c>
       <c r="BU2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="BW2" t="n">
         <v>0.3200000000000001</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.32</v>
       </c>
       <c r="BX2" t="n">
         <v>0.32</v>
@@ -5769,16 +5579,16 @@
         <v>0.32</v>
       </c>
       <c r="BZ2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CB2" t="n">
         <v>0.3100000000000001</v>
       </c>
-      <c r="CA2" t="n">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.31</v>
-      </c>
       <c r="CC2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="CD2" t="n">
         <v>0.3</v>
@@ -5796,10 +5606,10 @@
         <v>0.3</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.2999999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="CK2" t="n">
         <v>0.29</v>
@@ -5823,13 +5633,13 @@
         <v>0.29</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="CU2" t="n">
         <v>0.28</v>
@@ -5847,13 +5657,13 @@
         <v>0.28</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="DC2" t="n">
         <v>0.27</v>
@@ -5871,10 +5681,10 @@
         <v>0.27</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="DJ2" t="n">
         <v>0.26</v>
@@ -5889,7 +5699,7 @@
         <v>0.26</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="DO2" t="n">
         <v>0.25</v>
@@ -5913,16 +5723,16 @@
         <v>0.25</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="DZ2" t="n">
         <v>0.24</v>
@@ -5961,7 +5771,7 @@
         <v>0.24</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="EM2" t="n">
         <v>0.23</v>
@@ -5991,10 +5801,10 @@
         <v>0.23</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="EX2" t="n">
         <v>0.22</v>
@@ -6027,16 +5837,16 @@
         <v>0.22</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FL2" t="n">
         <v>0.21</v>
@@ -6072,16 +5882,16 @@
         <v>0.21</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="GA2" t="n">
         <v>0.2</v>
@@ -6117,22 +5927,22 @@
         <v>0.2</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GR2" t="n">
         <v>0.19</v>
@@ -6183,28 +5993,28 @@
         <v>0.19</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HP2" t="n">
         <v>0.18</v>
@@ -6240,22 +6050,22 @@
         <v>0.18</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IG2" t="n">
         <v>0.17</v>
@@ -6297,34 +6107,34 @@
         <v>0.17</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JD2" t="n">
         <v>0.16</v>
@@ -6399,31 +6209,31 @@
         <v>0.16</v>
       </c>
       <c r="KB2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KC2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KE2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KG2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KK2" t="n">
         <v>0.15</v>
@@ -6450,31 +6260,31 @@
         <v>0.15</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="KU2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="KX2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="KZ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LB2" t="n">
         <v>0.14</v>
@@ -6546,10 +6356,10 @@
         <v>0.14</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MA2" t="n">
         <v>0.13</v>
@@ -6666,31 +6476,31 @@
         <v>0.13</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NS2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NV2" t="n">
         <v>0.12</v>
@@ -6891,16 +6701,16 @@
         <v>0.12</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QK2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QL2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QN2" t="n">
         <v>0.11</v>
@@ -7056,55 +6866,55 @@
         <v>0.11</v>
       </c>
       <c r="SM2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SN2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SO2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SP2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SQ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SR2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SS2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ST2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SU2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SV2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SW2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SX2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SY2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SZ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="TA2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="TB2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="TC2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="TD2" t="n">
         <v>0.1</v>
@@ -7503,28 +7313,28 @@
         <v>0.1</v>
       </c>
       <c r="YF2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="YG2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="YH2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="YI2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="YJ2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="YK2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="YL2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="YM2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="YN2" t="n">
         <v>0.09</v>
@@ -7605,79 +7415,79 @@
         <v>0.09</v>
       </c>
       <c r="ZN2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZO2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZP2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZQ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZR2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZS2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZT2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZU2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZV2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZW2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZX2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZY2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZZ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAA2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAB2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAC2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAD2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAE2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAF2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAG2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAH2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAI2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAJ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAK2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAL2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAM2" t="n">
         <v>0.08</v>
@@ -7833,94 +7643,94 @@
         <v>0.08</v>
       </c>
       <c r="ACL2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACM2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACN2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACO2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACP2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACQ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACR2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACS2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACT2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACU2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACV2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACW2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACX2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACY2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACZ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADA2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADB2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADC2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADD2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADE2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADF2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADG2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADH2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADI2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADJ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADK2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADL2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADM2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADN2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADO2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADP2" t="n">
         <v>0.07000000000000001</v>
@@ -7992,100 +7802,100 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AEM2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AEN2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AEO2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AEP2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AEQ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AER2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AES2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AET2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AEU2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AEV2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AEW2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AEX2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AEY2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AEZ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFA2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFB2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFC2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFD2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFE2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFF2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFG2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFH2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFI2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFJ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFK2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFL2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFM2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFN2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFO2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFP2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFQ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFR2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFS2" t="n">
         <v>0.06</v>
@@ -8343,118 +8153,118 @@
         <v>0.06</v>
       </c>
       <c r="AIZ2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJA2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJB2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJC2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJD2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJE2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJF2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJG2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJH2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJI2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJJ2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJK2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJL2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJM2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJN2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJO2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJP2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJQ2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJR2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJS2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJT2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJU2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJV2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJW2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJX2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJY2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJZ2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKA2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKB2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKC2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKD2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKE2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKF2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKG2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKH2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKI2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKJ2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKK2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKL2" t="n">
         <v>0.05</v>
@@ -8484,120 +8294,6 @@
         <v>0.05</v>
       </c>
       <c r="AKU2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKV2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKW2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKX2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKY2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKZ2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALA2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALB2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALC2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALD2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALE2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALF2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALG2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALH2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALI2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALJ2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALK2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALL2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALM2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALN2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALO2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALP2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALQ2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALR2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALS2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALT2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALU2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALV2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALW2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALX2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALY2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALZ2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AMA2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AMB2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AMC2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AMD2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AME2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AMF2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AMG2" t="n">
         <v>0.05</v>
       </c>
     </row>
